--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132078.948755864</v>
+        <v>-1132773.439146039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="C11" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.07920029172772</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.6361464994335</v>
+        <v>28.48326588019916</v>
       </c>
       <c r="H11" t="n">
         <v>103.6361464994335</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.20351754497326</v>
+        <v>16.20351754497343</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.59593441152835</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>21.21399937876934</v>
+        <v>21.21399937876951</v>
       </c>
       <c r="V12" t="n">
-        <v>28.09075441968542</v>
+        <v>28.0907544196856</v>
       </c>
       <c r="W12" t="n">
-        <v>46.98515043117976</v>
+        <v>46.98515043117993</v>
       </c>
       <c r="X12" t="n">
-        <v>1.063152473737631</v>
+        <v>1.063152473737802</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9728630475645161</v>
+        <v>0.9728630475646867</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.40929043842142</v>
+        <v>15.40929043842159</v>
       </c>
       <c r="T13" t="n">
-        <v>22.28019426330891</v>
+        <v>22.28019426330908</v>
       </c>
       <c r="U13" t="n">
-        <v>81.59699795736509</v>
+        <v>81.59699795736526</v>
       </c>
       <c r="V13" t="n">
-        <v>47.42781059408816</v>
+        <v>47.42781059408833</v>
       </c>
       <c r="W13" t="n">
-        <v>81.81316560685116</v>
+        <v>81.81316560685133</v>
       </c>
       <c r="X13" t="n">
-        <v>20.99982265929731</v>
+        <v>20.99982265929748</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.87482062235495</v>
+        <v>13.87482062235512</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>103.6361464994335</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>91.28271783670098</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.28271783670094</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.21399937876926</v>
+        <v>21.21399937876943</v>
       </c>
       <c r="V15" t="n">
-        <v>28.09075441968534</v>
+        <v>28.09075441968551</v>
       </c>
       <c r="W15" t="n">
-        <v>46.98515043117968</v>
+        <v>46.98515043117985</v>
       </c>
       <c r="X15" t="n">
-        <v>1.063152473737546</v>
+        <v>1.063152473737716</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9728630475644309</v>
+        <v>0.9728630475646014</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.40929043842133</v>
+        <v>15.4092904384215</v>
       </c>
       <c r="T16" t="n">
-        <v>22.28019426330882</v>
+        <v>22.28019426330899</v>
       </c>
       <c r="U16" t="n">
-        <v>81.59699795736501</v>
+        <v>81.59699795736518</v>
       </c>
       <c r="V16" t="n">
-        <v>47.42781059408807</v>
+        <v>47.42781059408824</v>
       </c>
       <c r="W16" t="n">
-        <v>81.81316560685107</v>
+        <v>81.81316560685124</v>
       </c>
       <c r="X16" t="n">
-        <v>20.99982265929722</v>
+        <v>20.99982265929739</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.87482062235486</v>
+        <v>13.87482062235503</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.3650408835797</v>
+        <v>48.36504088357975</v>
       </c>
       <c r="C17" t="n">
-        <v>30.90409099110667</v>
+        <v>30.90409099110673</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3142408407822</v>
+        <v>20.31424084078213</v>
       </c>
       <c r="E17" t="n">
-        <v>47.5615692923609</v>
+        <v>47.56156929236096</v>
       </c>
       <c r="F17" t="n">
-        <v>72.50724496181056</v>
+        <v>72.50724496181061</v>
       </c>
       <c r="G17" t="n">
-        <v>80.43536465312835</v>
+        <v>80.43536465312837</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.87216793751213</v>
+        <v>14.87216793751219</v>
       </c>
       <c r="X17" t="n">
-        <v>35.36229989856815</v>
+        <v>35.36229989856821</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.86913787615271</v>
+        <v>51.86913787615276</v>
       </c>
     </row>
     <row r="18">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.87216793751219</v>
+        <v>14.87216793751204</v>
       </c>
       <c r="X20" t="n">
         <v>35.36229989856821</v>
@@ -2330,7 +2330,7 @@
         <v>72.50724496181061</v>
       </c>
       <c r="G23" t="n">
-        <v>80.43536465312837</v>
+        <v>80.4353646531284</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.3146718132376</v>
+        <v>212.3146718132375</v>
       </c>
       <c r="C26" t="n">
-        <v>194.8537219207646</v>
+        <v>194.8537219207645</v>
       </c>
       <c r="D26" t="n">
-        <v>184.26387177044</v>
+        <v>184.2638717704399</v>
       </c>
       <c r="E26" t="n">
-        <v>211.5112002220188</v>
+        <v>211.5112002220187</v>
       </c>
       <c r="F26" t="n">
-        <v>236.4568758914685</v>
+        <v>236.4568758914684</v>
       </c>
       <c r="G26" t="n">
-        <v>244.3849955827863</v>
+        <v>244.3849955827862</v>
       </c>
       <c r="H26" t="n">
-        <v>163.9496309296579</v>
+        <v>163.9496309296578</v>
       </c>
       <c r="I26" t="n">
-        <v>20.83551952477814</v>
+        <v>20.83551952477805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.2396884150159</v>
+        <v>27.23968841501581</v>
       </c>
       <c r="T26" t="n">
-        <v>50.49418042447016</v>
+        <v>50.49418042447007</v>
       </c>
       <c r="U26" t="n">
-        <v>80.88659729102508</v>
+        <v>80.886597291025</v>
       </c>
       <c r="V26" t="n">
-        <v>157.333088619892</v>
+        <v>157.3330886198919</v>
       </c>
       <c r="W26" t="n">
-        <v>178.8217988671701</v>
+        <v>178.82179886717</v>
       </c>
       <c r="X26" t="n">
-        <v>199.3119308282261</v>
+        <v>199.311930828226</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.8187688058106</v>
+        <v>215.8187688058105</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.289329138072787</v>
+        <v>2.289329138072702</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>28.67033053151739</v>
+        <v>28.6703305315173</v>
       </c>
       <c r="U27" t="n">
-        <v>55.50466225826623</v>
+        <v>55.50466225826614</v>
       </c>
       <c r="V27" t="n">
-        <v>62.38141729918232</v>
+        <v>62.38141729918223</v>
       </c>
       <c r="W27" t="n">
-        <v>81.27581331067665</v>
+        <v>81.27581331067657</v>
       </c>
       <c r="X27" t="n">
-        <v>35.35381535323452</v>
+        <v>35.35381535323444</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.26352592706141</v>
+        <v>35.26352592706132</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.412810331694345</v>
+        <v>9.41281033169426</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.69995331791831</v>
+        <v>49.69995331791823</v>
       </c>
       <c r="T28" t="n">
-        <v>56.5708571428058</v>
+        <v>56.57085714280571</v>
       </c>
       <c r="U28" t="n">
-        <v>115.887660836862</v>
+        <v>115.8876608368619</v>
       </c>
       <c r="V28" t="n">
-        <v>81.71847347358505</v>
+        <v>81.71847347358496</v>
       </c>
       <c r="W28" t="n">
         <v>116.103828486348</v>
       </c>
       <c r="X28" t="n">
-        <v>55.2904855387942</v>
+        <v>55.29048553879412</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.16548350185184</v>
+        <v>48.16548350185175</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.3146718132377</v>
+        <v>212.3146718132375</v>
       </c>
       <c r="C29" t="n">
-        <v>194.8537219207647</v>
+        <v>194.8537219207645</v>
       </c>
       <c r="D29" t="n">
-        <v>184.2638717704401</v>
+        <v>184.2638717704399</v>
       </c>
       <c r="E29" t="n">
-        <v>211.5112002220189</v>
+        <v>211.5112002220187</v>
       </c>
       <c r="F29" t="n">
-        <v>236.4568758914685</v>
+        <v>236.4568758914684</v>
       </c>
       <c r="G29" t="n">
-        <v>244.3849955827863</v>
+        <v>244.3849955827862</v>
       </c>
       <c r="H29" t="n">
-        <v>163.949630929658</v>
+        <v>163.9496309296578</v>
       </c>
       <c r="I29" t="n">
-        <v>20.83551952477819</v>
+        <v>20.83551952477805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>27.23968841501596</v>
+        <v>27.23968841501581</v>
       </c>
       <c r="T29" t="n">
-        <v>50.49418042447022</v>
+        <v>50.49418042447007</v>
       </c>
       <c r="U29" t="n">
-        <v>80.88659729102514</v>
+        <v>80.886597291025</v>
       </c>
       <c r="V29" t="n">
-        <v>157.333088619892</v>
+        <v>157.3330886198919</v>
       </c>
       <c r="W29" t="n">
-        <v>178.8217988671701</v>
+        <v>178.82179886717</v>
       </c>
       <c r="X29" t="n">
-        <v>199.3119308282261</v>
+        <v>199.311930828226</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.8187688058107</v>
+        <v>215.8187688058105</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.289329138072844</v>
+        <v>2.289329138072702</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>28.67033053151744</v>
+        <v>28.6703305315173</v>
       </c>
       <c r="U30" t="n">
-        <v>55.50466225826629</v>
+        <v>55.50466225826614</v>
       </c>
       <c r="V30" t="n">
-        <v>62.38141729918237</v>
+        <v>62.38141729918223</v>
       </c>
       <c r="W30" t="n">
-        <v>81.27581331067671</v>
+        <v>81.27581331067657</v>
       </c>
       <c r="X30" t="n">
-        <v>35.35381535323458</v>
+        <v>35.35381535323444</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.26352592706147</v>
+        <v>35.26352592706132</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.412810331694402</v>
+        <v>9.41281033169426</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.69995331791837</v>
+        <v>49.69995331791823</v>
       </c>
       <c r="T31" t="n">
-        <v>56.57085714280586</v>
+        <v>56.57085714280571</v>
       </c>
       <c r="U31" t="n">
-        <v>115.887660836862</v>
+        <v>115.8876608368619</v>
       </c>
       <c r="V31" t="n">
-        <v>81.71847347358511</v>
+        <v>81.71847347358496</v>
       </c>
       <c r="W31" t="n">
-        <v>116.1038284863481</v>
+        <v>116.103828486348</v>
       </c>
       <c r="X31" t="n">
-        <v>55.29048553879426</v>
+        <v>55.29048553879412</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.1654835018519</v>
+        <v>48.16548350185175</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.3146718132377</v>
+        <v>212.3146718132376</v>
       </c>
       <c r="C32" t="n">
         <v>194.8537219207646</v>
@@ -3035,19 +3035,19 @@
         <v>184.26387177044</v>
       </c>
       <c r="E32" t="n">
-        <v>211.5112002220189</v>
+        <v>211.5112002220188</v>
       </c>
       <c r="F32" t="n">
         <v>236.4568758914685</v>
       </c>
       <c r="G32" t="n">
-        <v>244.3849955827863</v>
+        <v>244.3849955827862</v>
       </c>
       <c r="H32" t="n">
-        <v>163.949630929658</v>
+        <v>163.9496309296579</v>
       </c>
       <c r="I32" t="n">
-        <v>20.83551952477816</v>
+        <v>20.83551952477811</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.23968841501593</v>
+        <v>27.23968841501588</v>
       </c>
       <c r="T32" t="n">
-        <v>50.49418042447019</v>
+        <v>50.49418042447013</v>
       </c>
       <c r="U32" t="n">
-        <v>80.88659729102511</v>
+        <v>80.88659729102505</v>
       </c>
       <c r="V32" t="n">
-        <v>157.333088619892</v>
+        <v>157.3330886198919</v>
       </c>
       <c r="W32" t="n">
-        <v>178.8217988671701</v>
+        <v>178.82179886717</v>
       </c>
       <c r="X32" t="n">
         <v>199.3119308282261</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.8187688058107</v>
+        <v>215.8187688058106</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.289329138072816</v>
+        <v>2.289329138072759</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>28.67033053151741</v>
+        <v>28.67033053151736</v>
       </c>
       <c r="U33" t="n">
-        <v>55.50466225826626</v>
+        <v>55.5046622582662</v>
       </c>
       <c r="V33" t="n">
-        <v>62.38141729918235</v>
+        <v>62.38141729918229</v>
       </c>
       <c r="W33" t="n">
-        <v>81.27581331067668</v>
+        <v>81.27581331067663</v>
       </c>
       <c r="X33" t="n">
-        <v>35.35381535323455</v>
+        <v>35.35381535323449</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.26352592706144</v>
+        <v>35.26352592706138</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.412810331694374</v>
+        <v>9.412810331694317</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.69995331791834</v>
+        <v>49.69995331791829</v>
       </c>
       <c r="T34" t="n">
-        <v>56.57085714280583</v>
+        <v>56.57085714280577</v>
       </c>
       <c r="U34" t="n">
         <v>115.887660836862</v>
       </c>
       <c r="V34" t="n">
-        <v>81.71847347358508</v>
+        <v>81.71847347358502</v>
       </c>
       <c r="W34" t="n">
-        <v>116.1038284863481</v>
+        <v>116.103828486348</v>
       </c>
       <c r="X34" t="n">
-        <v>55.29048553879423</v>
+        <v>55.29048553879417</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.16548350185187</v>
+        <v>48.16548350185181</v>
       </c>
     </row>
     <row r="35">
@@ -3515,7 +3515,7 @@
         <v>209.2171874764525</v>
       </c>
       <c r="G38" t="n">
-        <v>217.1453071677702</v>
+        <v>217.1453071677703</v>
       </c>
       <c r="H38" t="n">
         <v>136.7099425146419</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.25449200945414</v>
+        <v>23.25449200945417</v>
       </c>
       <c r="U38" t="n">
-        <v>53.64690887600906</v>
+        <v>53.64690887600909</v>
       </c>
       <c r="V38" t="n">
-        <v>130.0934002048759</v>
+        <v>130.093400204876</v>
       </c>
       <c r="W38" t="n">
-        <v>151.582110452154</v>
+        <v>151.5821104521541</v>
       </c>
       <c r="X38" t="n">
         <v>172.0722424132101</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.430642116501368</v>
+        <v>1.430642116501396</v>
       </c>
       <c r="U39" t="n">
-        <v>28.26497384325021</v>
+        <v>28.26497384325024</v>
       </c>
       <c r="V39" t="n">
-        <v>35.1417288841663</v>
+        <v>35.14172888416633</v>
       </c>
       <c r="W39" t="n">
-        <v>54.03612489566063</v>
+        <v>54.03612489566066</v>
       </c>
       <c r="X39" t="n">
-        <v>8.114126938218504</v>
+        <v>8.114126938218533</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.02383751204539</v>
+        <v>8.023837512045418</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.46026490290229</v>
+        <v>22.46026490290232</v>
       </c>
       <c r="T40" t="n">
-        <v>29.33116872778978</v>
+        <v>29.33116872778981</v>
       </c>
       <c r="U40" t="n">
-        <v>88.64797242184596</v>
+        <v>88.64797242184599</v>
       </c>
       <c r="V40" t="n">
-        <v>54.47878505856903</v>
+        <v>54.47878505856906</v>
       </c>
       <c r="W40" t="n">
-        <v>88.86414007133203</v>
+        <v>88.86414007133206</v>
       </c>
       <c r="X40" t="n">
-        <v>28.05079712377818</v>
+        <v>28.05079712377821</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.92579508683582</v>
+        <v>20.92579508683585</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.0749833982216</v>
+        <v>185.0749833982217</v>
       </c>
       <c r="C41" t="n">
-        <v>167.6140335057486</v>
+        <v>167.6140335057487</v>
       </c>
       <c r="D41" t="n">
-        <v>157.024183355424</v>
+        <v>157.0241833554241</v>
       </c>
       <c r="E41" t="n">
-        <v>184.2715118070028</v>
+        <v>184.2715118070029</v>
       </c>
       <c r="F41" t="n">
-        <v>209.2171874764525</v>
+        <v>209.2171874764526</v>
       </c>
       <c r="G41" t="n">
         <v>217.1453071677703</v>
       </c>
       <c r="H41" t="n">
-        <v>136.7099425146419</v>
+        <v>136.709942514642</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.25449200945417</v>
+        <v>23.25449200945422</v>
       </c>
       <c r="U41" t="n">
-        <v>53.64690887600909</v>
+        <v>53.64690887600914</v>
       </c>
       <c r="V41" t="n">
         <v>130.093400204876</v>
@@ -3806,7 +3806,7 @@
         <v>172.0722424132101</v>
       </c>
       <c r="Y41" t="n">
-        <v>188.5790803907946</v>
+        <v>188.5790803907947</v>
       </c>
     </row>
     <row r="42">
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.430642116501396</v>
+        <v>1.430642116501453</v>
       </c>
       <c r="U42" t="n">
-        <v>28.26497384325024</v>
+        <v>28.2649738432503</v>
       </c>
       <c r="V42" t="n">
-        <v>35.14172888416633</v>
+        <v>35.14172888416638</v>
       </c>
       <c r="W42" t="n">
-        <v>54.03612489566066</v>
+        <v>54.03612489566072</v>
       </c>
       <c r="X42" t="n">
-        <v>8.114126938218533</v>
+        <v>8.11412693821859</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.023837512045418</v>
+        <v>8.023837512045475</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.46026490290232</v>
+        <v>22.46026490290238</v>
       </c>
       <c r="T43" t="n">
-        <v>29.33116872778981</v>
+        <v>29.33116872778987</v>
       </c>
       <c r="U43" t="n">
-        <v>88.64797242184599</v>
+        <v>88.64797242184605</v>
       </c>
       <c r="V43" t="n">
-        <v>54.47878505856906</v>
+        <v>54.47878505856912</v>
       </c>
       <c r="W43" t="n">
-        <v>88.86414007133206</v>
+        <v>88.86414007133212</v>
       </c>
       <c r="X43" t="n">
-        <v>28.05079712377821</v>
+        <v>28.05079712377827</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.92579508683585</v>
+        <v>20.9257950868359</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>209.2171874764526</v>
       </c>
       <c r="G44" t="n">
-        <v>217.1453071677704</v>
+        <v>217.1453071677703</v>
       </c>
       <c r="H44" t="n">
         <v>136.709942514642</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.25449200945425</v>
+        <v>23.25449200945422</v>
       </c>
       <c r="U44" t="n">
-        <v>53.64690887600917</v>
+        <v>53.64690887600914</v>
       </c>
       <c r="V44" t="n">
         <v>130.093400204876</v>
       </c>
       <c r="W44" t="n">
-        <v>151.5821104521542</v>
+        <v>151.5821104521541</v>
       </c>
       <c r="X44" t="n">
-        <v>172.0722424132102</v>
+        <v>172.0722424132101</v>
       </c>
       <c r="Y44" t="n">
         <v>188.5790803907947</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.430642116501482</v>
+        <v>1.430642116501456</v>
       </c>
       <c r="U45" t="n">
-        <v>28.26497384325033</v>
+        <v>28.2649738432503</v>
       </c>
       <c r="V45" t="n">
-        <v>35.14172888416641</v>
+        <v>35.14172888416638</v>
       </c>
       <c r="W45" t="n">
-        <v>54.03612489566075</v>
+        <v>54.03612489566072</v>
       </c>
       <c r="X45" t="n">
-        <v>8.114126938218618</v>
+        <v>8.11412693821859</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.023837512045503</v>
+        <v>8.023837512045475</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>22.46026490290241</v>
+        <v>22.46026490290239</v>
       </c>
       <c r="T46" t="n">
-        <v>29.33116872778989</v>
+        <v>29.33116872778987</v>
       </c>
       <c r="U46" t="n">
-        <v>88.64797242184608</v>
+        <v>88.64797242184605</v>
       </c>
       <c r="V46" t="n">
-        <v>54.47878505856914</v>
+        <v>54.47878505856912</v>
       </c>
       <c r="W46" t="n">
-        <v>88.86414007133214</v>
+        <v>88.86414007133212</v>
       </c>
       <c r="X46" t="n">
-        <v>28.0507971237783</v>
+        <v>28.05079712377827</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.92579508683593</v>
+        <v>20.9257950868359</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>398.1773965583669</v>
+        <v>141.7448436185735</v>
       </c>
       <c r="C11" t="n">
-        <v>293.4944202963129</v>
+        <v>141.7448436185735</v>
       </c>
       <c r="D11" t="n">
-        <v>293.4944202963129</v>
+        <v>141.7448436185735</v>
       </c>
       <c r="E11" t="n">
-        <v>293.4944202963129</v>
+        <v>141.7448436185735</v>
       </c>
       <c r="F11" t="n">
-        <v>217.6568442440627</v>
+        <v>141.7448436185735</v>
       </c>
       <c r="G11" t="n">
         <v>112.9738679820087</v>
       </c>
       <c r="H11" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I11" t="n">
-        <v>21.61148364112625</v>
+        <v>21.61148364112608</v>
       </c>
       <c r="J11" t="n">
-        <v>21.61148364112625</v>
+        <v>21.61148364112608</v>
       </c>
       <c r="K11" t="n">
-        <v>21.61148364112625</v>
+        <v>21.61148364112608</v>
       </c>
       <c r="L11" t="n">
-        <v>68.75709693172718</v>
+        <v>124.2112686755652</v>
       </c>
       <c r="M11" t="n">
-        <v>68.75709693172718</v>
+        <v>226.8110537100044</v>
       </c>
       <c r="N11" t="n">
-        <v>132.3727467834888</v>
+        <v>226.8110537100044</v>
       </c>
       <c r="O11" t="n">
-        <v>234.9725318179279</v>
+        <v>322.2665693701397</v>
       </c>
       <c r="P11" t="n">
-        <v>337.5723168523671</v>
+        <v>322.2665693701397</v>
       </c>
       <c r="Q11" t="n">
-        <v>387.3258250443918</v>
+        <v>322.2665693701397</v>
       </c>
       <c r="R11" t="n">
-        <v>407.5641212778977</v>
+        <v>407.564121277898</v>
       </c>
       <c r="S11" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="T11" t="n">
         <v>398.1773965583669</v>
       </c>
       <c r="U11" t="n">
-        <v>398.1773965583669</v>
+        <v>351.1107961426816</v>
       </c>
       <c r="V11" t="n">
-        <v>398.1773965583669</v>
+        <v>351.1107961426816</v>
       </c>
       <c r="W11" t="n">
-        <v>398.1773965583669</v>
+        <v>351.1107961426816</v>
       </c>
       <c r="X11" t="n">
-        <v>398.1773965583669</v>
+        <v>351.1107961426816</v>
       </c>
       <c r="Y11" t="n">
-        <v>398.1773965583669</v>
+        <v>246.4278198806276</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3911089266414</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3911089266414</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3911089266414</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="M12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="N12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="O12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="P12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6100025794867</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="R12" t="n">
-        <v>107.6100025794867</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="S12" t="n">
-        <v>107.6100025794867</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="T12" t="n">
-        <v>107.6100025794867</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="U12" t="n">
-        <v>86.18172037870957</v>
+        <v>86.18172037871025</v>
       </c>
       <c r="V12" t="n">
-        <v>57.8072209648859</v>
+        <v>57.80722096488643</v>
       </c>
       <c r="W12" t="n">
-        <v>10.34747305460331</v>
+        <v>10.34747305460366</v>
       </c>
       <c r="X12" t="n">
-        <v>9.273581666989543</v>
+        <v>9.273581666989717</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C13" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D13" t="n">
-        <v>14.95601697822514</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E13" t="n">
-        <v>72.64912836056411</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F13" t="n">
-        <v>131.3450252203046</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9180959072279</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H13" t="n">
-        <v>167.9180959072279</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I13" t="n">
-        <v>223.3431378559238</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J13" t="n">
-        <v>223.3431378559238</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K13" t="n">
-        <v>223.3431378559238</v>
+        <v>95.07038457236291</v>
       </c>
       <c r="L13" t="n">
-        <v>223.3431378559238</v>
+        <v>95.07038457236291</v>
       </c>
       <c r="M13" t="n">
-        <v>223.3431378559238</v>
+        <v>95.07038457236291</v>
       </c>
       <c r="N13" t="n">
-        <v>223.3431378559238</v>
+        <v>197.6701696068021</v>
       </c>
       <c r="O13" t="n">
-        <v>223.3431378559238</v>
+        <v>294.5556413580236</v>
       </c>
       <c r="P13" t="n">
-        <v>223.3431378559238</v>
+        <v>294.5556413580236</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.5556413580223</v>
+        <v>294.5556413580236</v>
       </c>
       <c r="R13" t="n">
-        <v>294.5556413580223</v>
+        <v>294.5556413580236</v>
       </c>
       <c r="S13" t="n">
-        <v>278.990701521233</v>
+        <v>278.9907015212341</v>
       </c>
       <c r="T13" t="n">
-        <v>256.485454790618</v>
+        <v>256.4854547906189</v>
       </c>
       <c r="U13" t="n">
-        <v>174.0642447326734</v>
+        <v>174.0642447326741</v>
       </c>
       <c r="V13" t="n">
-        <v>126.1573653447056</v>
+        <v>126.1573653447061</v>
       </c>
       <c r="W13" t="n">
-        <v>43.51780412566403</v>
+        <v>43.51780412566437</v>
       </c>
       <c r="X13" t="n">
-        <v>22.30586204556574</v>
+        <v>22.30586204556591</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>414.544585997734</v>
+      </c>
+      <c r="C14" t="n">
+        <v>414.544585997734</v>
+      </c>
+      <c r="D14" t="n">
+        <v>414.544585997734</v>
+      </c>
+      <c r="E14" t="n">
+        <v>309.86160973568</v>
+      </c>
+      <c r="F14" t="n">
+        <v>217.6568442440628</v>
+      </c>
+      <c r="G14" t="n">
         <v>112.9738679820087</v>
       </c>
-      <c r="C14" t="n">
-        <v>112.9738679820087</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.290891719954677</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.290891719954677</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8.290891719954677</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.290891719954677</v>
-      </c>
       <c r="H14" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I14" t="n">
-        <v>21.61148364112633</v>
+        <v>21.61148364112616</v>
       </c>
       <c r="J14" t="n">
-        <v>86.93129799324242</v>
+        <v>21.61148364112616</v>
       </c>
       <c r="K14" t="n">
-        <v>111.2317613767125</v>
+        <v>21.61148364112616</v>
       </c>
       <c r="L14" t="n">
-        <v>158.3773746673135</v>
+        <v>21.61148364112616</v>
       </c>
       <c r="M14" t="n">
-        <v>219.6667843356998</v>
+        <v>124.2112686755653</v>
       </c>
       <c r="N14" t="n">
-        <v>219.6667843356998</v>
+        <v>209.3450159288557</v>
       </c>
       <c r="O14" t="n">
-        <v>322.266569370139</v>
+        <v>311.9448009632948</v>
       </c>
       <c r="P14" t="n">
-        <v>322.266569370139</v>
+        <v>311.9448009632948</v>
       </c>
       <c r="Q14" t="n">
-        <v>322.266569370139</v>
+        <v>414.544585997734</v>
       </c>
       <c r="R14" t="n">
-        <v>407.5641212778976</v>
+        <v>414.544585997734</v>
       </c>
       <c r="S14" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="T14" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="U14" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="V14" t="n">
-        <v>322.3398205061167</v>
+        <v>414.544585997734</v>
       </c>
       <c r="W14" t="n">
-        <v>217.6568442440627</v>
+        <v>414.544585997734</v>
       </c>
       <c r="X14" t="n">
-        <v>217.6568442440627</v>
+        <v>414.544585997734</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.9738679820087</v>
+        <v>414.544585997734</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C15" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D15" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E15" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F15" t="n">
-        <v>67.33510585294717</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G15" t="n">
-        <v>107.6100025794863</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6100025794863</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I15" t="n">
-        <v>107.6100025794863</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J15" t="n">
-        <v>107.6100025794863</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K15" t="n">
-        <v>107.6100025794863</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="M15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="N15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="O15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="P15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="R15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="S15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="T15" t="n">
-        <v>107.6100025794863</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="U15" t="n">
-        <v>86.18172037870923</v>
+        <v>86.18172037870991</v>
       </c>
       <c r="V15" t="n">
-        <v>57.80722096488564</v>
+        <v>57.80722096488616</v>
       </c>
       <c r="W15" t="n">
-        <v>10.34747305460314</v>
+        <v>10.34747305460349</v>
       </c>
       <c r="X15" t="n">
-        <v>9.273581666989456</v>
+        <v>9.27358166698963</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C16" t="n">
-        <v>45.37927323475565</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D16" t="n">
-        <v>45.37927323475565</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E16" t="n">
-        <v>45.37927323475565</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F16" t="n">
-        <v>104.0751700944963</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G16" t="n">
-        <v>123.8917630083391</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H16" t="n">
-        <v>167.9180959072272</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I16" t="n">
-        <v>223.3431378559232</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J16" t="n">
-        <v>223.3431378559232</v>
+        <v>100.8815524467927</v>
       </c>
       <c r="K16" t="n">
-        <v>223.3431378559232</v>
+        <v>100.8815524467927</v>
       </c>
       <c r="L16" t="n">
-        <v>223.3431378559232</v>
+        <v>100.8815524467927</v>
       </c>
       <c r="M16" t="n">
-        <v>223.3431378559232</v>
+        <v>100.8815524467927</v>
       </c>
       <c r="N16" t="n">
-        <v>223.3431378559232</v>
+        <v>197.6701696068014</v>
       </c>
       <c r="O16" t="n">
-        <v>223.3431378559232</v>
+        <v>294.555641358023</v>
       </c>
       <c r="P16" t="n">
-        <v>223.3431378559232</v>
+        <v>294.555641358023</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.5556413580218</v>
+        <v>294.555641358023</v>
       </c>
       <c r="R16" t="n">
-        <v>294.5556413580218</v>
+        <v>294.555641358023</v>
       </c>
       <c r="S16" t="n">
-        <v>278.9907015212326</v>
+        <v>278.9907015212336</v>
       </c>
       <c r="T16" t="n">
-        <v>256.4854547906176</v>
+        <v>256.4854547906184</v>
       </c>
       <c r="U16" t="n">
-        <v>174.0642447326731</v>
+        <v>174.0642447326738</v>
       </c>
       <c r="V16" t="n">
-        <v>126.1573653447054</v>
+        <v>126.1573653447059</v>
       </c>
       <c r="W16" t="n">
-        <v>43.51780412566386</v>
+        <v>43.5178041256642</v>
       </c>
       <c r="X16" t="n">
-        <v>22.30586204556565</v>
+        <v>22.30586204556582</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>262.5560540827714</v>
       </c>
       <c r="C17" t="n">
-        <v>231.3398005564011</v>
+        <v>231.339800556401</v>
       </c>
       <c r="D17" t="n">
-        <v>210.8203653636918</v>
+        <v>210.8203653636917</v>
       </c>
       <c r="E17" t="n">
-        <v>162.7783761794889</v>
+        <v>162.778376179489</v>
       </c>
       <c r="F17" t="n">
-        <v>89.53873480392261</v>
+        <v>89.53873480392269</v>
       </c>
       <c r="G17" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H17" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I17" t="n">
-        <v>110.8906767543938</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J17" t="n">
         <v>110.8906767543938</v>
@@ -5534,31 +5534,31 @@
         <v>110.8906767543938</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.8906767543938</v>
+        <v>202.7946390421874</v>
       </c>
       <c r="R17" t="n">
-        <v>213.4904617888329</v>
+        <v>202.7946390421874</v>
       </c>
       <c r="S17" t="n">
-        <v>223.1620207743799</v>
+        <v>305.3944240766266</v>
       </c>
       <c r="T17" t="n">
-        <v>325.7618058088191</v>
+        <v>407.9942091110657</v>
       </c>
       <c r="U17" t="n">
-        <v>407.9942091110656</v>
+        <v>407.9942091110657</v>
       </c>
       <c r="V17" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="W17" t="n">
-        <v>399.522194141661</v>
+        <v>399.5221941416611</v>
       </c>
       <c r="X17" t="n">
         <v>363.8026992946225</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.4096307328519</v>
+        <v>311.409630732852</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="M18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="N18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="O18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="P18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="R18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="S18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="T18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="U18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="V18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="W18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="X18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="M19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="N19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="O19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="P19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="R19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="S19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="T19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="U19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="V19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="W19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="X19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.290891719954677</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.5560540827718</v>
+        <v>262.5560540827719</v>
       </c>
       <c r="C20" t="n">
-        <v>231.3398005564013</v>
+        <v>231.3398005564014</v>
       </c>
       <c r="D20" t="n">
         <v>210.8203653636922</v>
       </c>
       <c r="E20" t="n">
-        <v>162.7783761794894</v>
+        <v>162.7783761794892</v>
       </c>
       <c r="F20" t="n">
         <v>89.53873480392275</v>
       </c>
       <c r="G20" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H20" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I20" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="J20" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="K20" t="n">
-        <v>8.290891719954679</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="L20" t="n">
-        <v>8.290891719954679</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="M20" t="n">
-        <v>8.290891719954679</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="N20" t="n">
-        <v>8.290891719954679</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="O20" t="n">
-        <v>8.290891719954679</v>
+        <v>213.490461788833</v>
       </c>
       <c r="P20" t="n">
-        <v>8.290891719954679</v>
+        <v>213.490461788833</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.96245070550179</v>
+        <v>305.3944240766266</v>
       </c>
       <c r="R20" t="n">
-        <v>120.5622357399409</v>
+        <v>305.3944240766266</v>
       </c>
       <c r="S20" t="n">
-        <v>223.1620207743801</v>
+        <v>407.9942091110658</v>
       </c>
       <c r="T20" t="n">
-        <v>325.7618058088192</v>
+        <v>407.9942091110658</v>
       </c>
       <c r="U20" t="n">
-        <v>407.9942091110657</v>
+        <v>407.9942091110658</v>
       </c>
       <c r="V20" t="n">
-        <v>414.5445859977339</v>
+        <v>414.544585997734</v>
       </c>
       <c r="W20" t="n">
-        <v>399.5221941416612</v>
+        <v>399.5221941416614</v>
       </c>
       <c r="X20" t="n">
-        <v>363.8026992946227</v>
+        <v>363.8026992946229</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.4096307328523</v>
+        <v>311.4096307328524</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="C21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="D21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="E21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="F21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="G21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="J21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="K21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="L21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="M21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="N21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="O21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="P21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="R21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="S21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="T21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="U21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="V21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="W21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="X21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="C22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="D22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="E22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="F22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="G22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="J22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="K22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="L22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="M22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="N22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="O22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="P22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="R22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="S22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="T22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="U22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="V22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="W22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="X22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.290891719954679</v>
+        <v>8.290891719954681</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.5560540827721</v>
+        <v>262.5560540827715</v>
       </c>
       <c r="C23" t="n">
-        <v>231.3398005564016</v>
+        <v>231.3398005564011</v>
       </c>
       <c r="D23" t="n">
-        <v>210.8203653636924</v>
+        <v>210.8203653636918</v>
       </c>
       <c r="E23" t="n">
-        <v>162.7783761794894</v>
+        <v>162.7783761794889</v>
       </c>
       <c r="F23" t="n">
-        <v>89.53873480392321</v>
+        <v>89.53873480392258</v>
       </c>
       <c r="G23" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H23" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I23" t="n">
-        <v>100.1948540077484</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="J23" t="n">
-        <v>100.1948540077484</v>
+        <v>213.490461788833</v>
       </c>
       <c r="K23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="L23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="M23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="N23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="O23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="P23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.7946390421876</v>
+        <v>213.490461788833</v>
       </c>
       <c r="R23" t="n">
-        <v>305.3944240766269</v>
+        <v>223.1620207743802</v>
       </c>
       <c r="S23" t="n">
-        <v>407.9942091110661</v>
+        <v>223.1620207743802</v>
       </c>
       <c r="T23" t="n">
-        <v>407.9942091110661</v>
+        <v>325.7618058088194</v>
       </c>
       <c r="U23" t="n">
-        <v>407.9942091110661</v>
+        <v>407.9942091110658</v>
       </c>
       <c r="V23" t="n">
-        <v>414.5445859977344</v>
+        <v>414.544585997734</v>
       </c>
       <c r="W23" t="n">
-        <v>399.5221941416615</v>
+        <v>399.5221941416611</v>
       </c>
       <c r="X23" t="n">
-        <v>363.8026992946229</v>
+        <v>363.8026992946225</v>
       </c>
       <c r="Y23" t="n">
-        <v>311.4096307328525</v>
+        <v>311.4096307328521</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="C24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="D24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="E24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="F24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="G24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="J24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="K24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="L24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="M24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="N24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="O24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="P24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="R24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="S24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="T24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="U24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="V24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="W24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="X24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="C25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="D25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="E25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="F25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="G25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="H25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="I25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="J25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="K25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="L25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="M25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="N25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="O25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="P25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="R25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="S25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="T25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="U25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="V25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="W25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="X25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.290891719954688</v>
+        <v>8.290891719954681</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>1317.975912536808</v>
       </c>
       <c r="C26" t="n">
-        <v>1121.153971202702</v>
+        <v>1121.153971202703</v>
       </c>
       <c r="D26" t="n">
-        <v>935.0288482022584</v>
+        <v>935.0288482022585</v>
       </c>
       <c r="E26" t="n">
-        <v>721.38117121032</v>
+        <v>721.3811712103203</v>
       </c>
       <c r="F26" t="n">
-        <v>482.5358420270184</v>
+        <v>482.5358420270188</v>
       </c>
       <c r="G26" t="n">
-        <v>235.6823111353151</v>
+        <v>235.6823111353156</v>
       </c>
       <c r="H26" t="n">
-        <v>70.07662332757968</v>
+        <v>70.0766233275796</v>
       </c>
       <c r="I26" t="n">
         <v>49.03064400962197</v>
       </c>
       <c r="J26" t="n">
-        <v>247.8083511313891</v>
+        <v>80.40270211103613</v>
       </c>
       <c r="K26" t="n">
-        <v>247.8083511313891</v>
+        <v>316.0103122381489</v>
       </c>
       <c r="L26" t="n">
-        <v>674.490810576234</v>
+        <v>742.6927716829939</v>
       </c>
       <c r="M26" t="n">
-        <v>1146.850862151823</v>
+        <v>1215.052823258583</v>
       </c>
       <c r="N26" t="n">
-        <v>1609.492210920747</v>
+        <v>1677.694172027507</v>
       </c>
       <c r="O26" t="n">
-        <v>2010.565888245054</v>
+        <v>2078.767849351814</v>
       </c>
       <c r="P26" t="n">
-        <v>2282.874078553134</v>
+        <v>2239.406240379566</v>
       </c>
       <c r="Q26" t="n">
-        <v>2400.182404824042</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="R26" t="n">
-        <v>2451.532200481099</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="S26" t="n">
         <v>2424.017363698254</v>
@@ -6263,7 +6263,7 @@
         <v>2132.387195682712</v>
       </c>
       <c r="W26" t="n">
-        <v>1951.759116018904</v>
+        <v>1951.759116018903</v>
       </c>
       <c r="X26" t="n">
         <v>1750.43393336413</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444287</v>
       </c>
       <c r="C27" t="n">
         <v>49.03064400962197</v>
@@ -6315,40 +6315,40 @@
         <v>49.03064400962197</v>
       </c>
       <c r="N27" t="n">
-        <v>352.8073044318556</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="O27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.807304431855</v>
       </c>
       <c r="P27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.807304431855</v>
       </c>
       <c r="Q27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.807304431855</v>
       </c>
       <c r="R27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.807304431855</v>
       </c>
       <c r="S27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.807304431855</v>
       </c>
       <c r="T27" t="n">
-        <v>323.8473746020401</v>
+        <v>323.8473746020395</v>
       </c>
       <c r="U27" t="n">
-        <v>267.7820591896499</v>
+        <v>267.7820591896495</v>
       </c>
       <c r="V27" t="n">
-        <v>204.7705265642133</v>
+        <v>204.7705265642129</v>
       </c>
       <c r="W27" t="n">
-        <v>122.6737454423177</v>
+        <v>122.6737454423174</v>
       </c>
       <c r="X27" t="n">
-        <v>86.96282084309087</v>
+        <v>86.96282084309067</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444287</v>
       </c>
     </row>
     <row r="28">
@@ -6364,70 +6364,70 @@
         <v>49.03064400962197</v>
       </c>
       <c r="D28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="H28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="I28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="K28" t="n">
-        <v>74.29284109986079</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="L28" t="n">
-        <v>303.2389557170554</v>
+        <v>109.261780475076</v>
       </c>
       <c r="M28" t="n">
-        <v>377.1333671858966</v>
+        <v>183.1561919439173</v>
       </c>
       <c r="N28" t="n">
-        <v>454.7053511339926</v>
+        <v>260.7281758920132</v>
       </c>
       <c r="O28" t="n">
-        <v>510.3393381849954</v>
+        <v>485.0771410947567</v>
       </c>
       <c r="P28" t="n">
-        <v>534.4231429465018</v>
+        <v>509.160945856263</v>
       </c>
       <c r="Q28" t="n">
-        <v>587.2625153529145</v>
+        <v>587.2625153529137</v>
       </c>
       <c r="R28" t="n">
-        <v>587.2625153529145</v>
+        <v>587.2625153529137</v>
       </c>
       <c r="S28" t="n">
-        <v>537.0605423045122</v>
+        <v>537.0605423045115</v>
       </c>
       <c r="T28" t="n">
-        <v>479.9182623622841</v>
+        <v>479.9182623622835</v>
       </c>
       <c r="U28" t="n">
-        <v>362.8600190927265</v>
+        <v>362.8600190927261</v>
       </c>
       <c r="V28" t="n">
-        <v>280.3161064931456</v>
+        <v>280.3161064931453</v>
       </c>
       <c r="W28" t="n">
-        <v>163.0395120624911</v>
+        <v>163.0395120624908</v>
       </c>
       <c r="X28" t="n">
-        <v>107.1905367707797</v>
+        <v>107.1905367707796</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.53853323355565</v>
+        <v>58.53853323355556</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1317.975912536809</v>
+        <v>1317.975912536808</v>
       </c>
       <c r="C29" t="n">
         <v>1121.153971202703</v>
       </c>
       <c r="D29" t="n">
-        <v>935.0288482022582</v>
+        <v>935.0288482022584</v>
       </c>
       <c r="E29" t="n">
-        <v>721.38117121032</v>
+        <v>721.3811712103202</v>
       </c>
       <c r="F29" t="n">
-        <v>482.5358420270184</v>
+        <v>482.5358420270187</v>
       </c>
       <c r="G29" t="n">
-        <v>235.682311135315</v>
+        <v>235.6823111353155</v>
       </c>
       <c r="H29" t="n">
-        <v>70.07662332757974</v>
+        <v>70.0766233275796</v>
       </c>
       <c r="I29" t="n">
         <v>49.03064400962197</v>
       </c>
       <c r="J29" t="n">
-        <v>247.808351131389</v>
+        <v>247.8083511313891</v>
       </c>
       <c r="K29" t="n">
-        <v>582.324371298329</v>
+        <v>582.3243712983293</v>
       </c>
       <c r="L29" t="n">
-        <v>965.5389925696143</v>
+        <v>954.8187317845257</v>
       </c>
       <c r="M29" t="n">
-        <v>1437.899044145203</v>
+        <v>1427.178783360114</v>
       </c>
       <c r="N29" t="n">
-        <v>1900.540392914127</v>
+        <v>1889.820132129038</v>
       </c>
       <c r="O29" t="n">
-        <v>1910.052871200075</v>
+        <v>2290.893809453346</v>
       </c>
       <c r="P29" t="n">
-        <v>2239.406240379567</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="Q29" t="n">
-        <v>2451.532200481099</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="R29" t="n">
-        <v>2451.532200481099</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="S29" t="n">
         <v>2424.017363698254</v>
@@ -6494,16 +6494,16 @@
         <v>2373.013141047274</v>
       </c>
       <c r="U29" t="n">
-        <v>2291.309507419977</v>
+        <v>2291.309507419976</v>
       </c>
       <c r="V29" t="n">
         <v>2132.387195682712</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.759116018904</v>
+        <v>1951.759116018903</v>
       </c>
       <c r="X29" t="n">
-        <v>1750.433933364131</v>
+        <v>1750.43393336413</v>
       </c>
       <c r="Y29" t="n">
         <v>1532.435176994624</v>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.34309768444303</v>
+        <v>51.34309768444287</v>
       </c>
       <c r="C30" t="n">
         <v>49.03064400962197</v>
@@ -6525,67 +6525,67 @@
         <v>49.03064400962197</v>
       </c>
       <c r="E30" t="n">
-        <v>49.03064400962197</v>
+        <v>61.67699251051564</v>
       </c>
       <c r="F30" t="n">
-        <v>49.03064400962197</v>
+        <v>84.38531155138247</v>
       </c>
       <c r="G30" t="n">
-        <v>49.03064400962197</v>
+        <v>117.3942996972074</v>
       </c>
       <c r="H30" t="n">
-        <v>49.03064400962197</v>
+        <v>177.5467606531923</v>
       </c>
       <c r="I30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="J30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="K30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="L30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="M30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="N30" t="n">
-        <v>49.03064400962197</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="O30" t="n">
-        <v>352.807304431856</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="P30" t="n">
-        <v>352.807304431856</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.807304431856</v>
+        <v>266.8517130164777</v>
       </c>
       <c r="R30" t="n">
-        <v>352.807304431856</v>
+        <v>352.807304431855</v>
       </c>
       <c r="S30" t="n">
-        <v>352.807304431856</v>
+        <v>352.807304431855</v>
       </c>
       <c r="T30" t="n">
-        <v>323.8473746020404</v>
+        <v>323.8473746020395</v>
       </c>
       <c r="U30" t="n">
-        <v>267.7820591896502</v>
+        <v>267.7820591896495</v>
       </c>
       <c r="V30" t="n">
-        <v>204.7705265642135</v>
+        <v>204.7705265642129</v>
       </c>
       <c r="W30" t="n">
-        <v>122.6737454423178</v>
+        <v>122.6737454423174</v>
       </c>
       <c r="X30" t="n">
-        <v>86.96282084309098</v>
+        <v>86.96282084309067</v>
       </c>
       <c r="Y30" t="n">
-        <v>51.34309768444303</v>
+        <v>51.34309768444287</v>
       </c>
     </row>
     <row r="31">
@@ -6598,73 +6598,73 @@
         <v>49.03064400962197</v>
       </c>
       <c r="C31" t="n">
-        <v>52.17126927372088</v>
+        <v>52.17126927372102</v>
       </c>
       <c r="D31" t="n">
-        <v>73.75692913743111</v>
+        <v>52.17126927372102</v>
       </c>
       <c r="E31" t="n">
-        <v>73.75692913743111</v>
+        <v>60.29714495573427</v>
       </c>
       <c r="F31" t="n">
-        <v>73.75692913743111</v>
+        <v>85.04528556477294</v>
       </c>
       <c r="G31" t="n">
-        <v>73.75692913743111</v>
+        <v>85.04528556477294</v>
       </c>
       <c r="H31" t="n">
-        <v>73.75692913743111</v>
+        <v>95.1238622129591</v>
       </c>
       <c r="I31" t="n">
-        <v>95.23421483542506</v>
+        <v>95.1238622129591</v>
       </c>
       <c r="J31" t="n">
-        <v>123.4556762797455</v>
+        <v>187.0666455985915</v>
       </c>
       <c r="K31" t="n">
-        <v>127.132213506274</v>
+        <v>190.74318282512</v>
       </c>
       <c r="L31" t="n">
-        <v>187.363349971728</v>
+        <v>250.9743192905741</v>
       </c>
       <c r="M31" t="n">
-        <v>429.9727395923098</v>
+        <v>324.8687307594154</v>
       </c>
       <c r="N31" t="n">
-        <v>507.5447235404058</v>
+        <v>402.4407147075113</v>
       </c>
       <c r="O31" t="n">
-        <v>563.1787105914086</v>
+        <v>458.0747017585142</v>
       </c>
       <c r="P31" t="n">
-        <v>587.262515352915</v>
+        <v>482.1585065200205</v>
       </c>
       <c r="Q31" t="n">
-        <v>587.262515352915</v>
+        <v>584.1127825653911</v>
       </c>
       <c r="R31" t="n">
-        <v>587.262515352915</v>
+        <v>587.2625153529137</v>
       </c>
       <c r="S31" t="n">
-        <v>537.0605423045126</v>
+        <v>537.0605423045115</v>
       </c>
       <c r="T31" t="n">
-        <v>479.9182623622845</v>
+        <v>479.9182623622835</v>
       </c>
       <c r="U31" t="n">
-        <v>362.8600190927268</v>
+        <v>362.8600190927261</v>
       </c>
       <c r="V31" t="n">
-        <v>280.3161064931459</v>
+        <v>280.3161064931453</v>
       </c>
       <c r="W31" t="n">
-        <v>163.0395120624912</v>
+        <v>163.0395120624908</v>
       </c>
       <c r="X31" t="n">
-        <v>107.1905367707799</v>
+        <v>107.1905367707796</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.53853323355571</v>
+        <v>58.53853323355556</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1317.975912536808</v>
       </c>
       <c r="C32" t="n">
-        <v>1121.153971202703</v>
+        <v>1121.153971202702</v>
       </c>
       <c r="D32" t="n">
         <v>935.0288482022582</v>
       </c>
       <c r="E32" t="n">
-        <v>721.38117121032</v>
+        <v>721.3811712103201</v>
       </c>
       <c r="F32" t="n">
-        <v>482.5358420270184</v>
+        <v>482.5358420270186</v>
       </c>
       <c r="G32" t="n">
-        <v>235.6823111353151</v>
+        <v>235.6823111353148</v>
       </c>
       <c r="H32" t="n">
-        <v>70.07662332757971</v>
+        <v>70.07662332757965</v>
       </c>
       <c r="I32" t="n">
         <v>49.03064400962197</v>
       </c>
       <c r="J32" t="n">
-        <v>49.03064400962197</v>
+        <v>129.4908977344376</v>
       </c>
       <c r="K32" t="n">
-        <v>214.8316860248215</v>
+        <v>295.2919397496371</v>
       </c>
       <c r="L32" t="n">
-        <v>641.5141454696663</v>
+        <v>721.974399194482</v>
       </c>
       <c r="M32" t="n">
-        <v>1093.719419443549</v>
+        <v>1194.334450770071</v>
       </c>
       <c r="N32" t="n">
-        <v>1556.360768212473</v>
+        <v>1656.975799538995</v>
       </c>
       <c r="O32" t="n">
-        <v>1858.703075543018</v>
+        <v>2058.049476863302</v>
       </c>
       <c r="P32" t="n">
-        <v>2188.056444722511</v>
+        <v>2188.05644472251</v>
       </c>
       <c r="Q32" t="n">
-        <v>2400.182404824042</v>
+        <v>2400.182404824041</v>
       </c>
       <c r="R32" t="n">
-        <v>2451.532200481099</v>
+        <v>2451.532200481098</v>
       </c>
       <c r="S32" t="n">
         <v>2424.017363698254</v>
@@ -6734,16 +6734,16 @@
         <v>2291.309507419976</v>
       </c>
       <c r="V32" t="n">
-        <v>2132.387195682712</v>
+        <v>2132.387195682711</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.759116018904</v>
+        <v>1951.759116018903</v>
       </c>
       <c r="X32" t="n">
-        <v>1750.43393336413</v>
+        <v>1750.433933364129</v>
       </c>
       <c r="Y32" t="n">
-        <v>1532.435176994624</v>
+        <v>1532.435176994623</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.343097684443</v>
+        <v>51.34309768444294</v>
       </c>
       <c r="C33" t="n">
         <v>49.03064400962197</v>
       </c>
       <c r="D33" t="n">
-        <v>71.7750072523701</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E33" t="n">
-        <v>71.7750072523701</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F33" t="n">
-        <v>71.7750072523701</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7839953981949</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="H33" t="n">
-        <v>164.9364563541797</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="I33" t="n">
-        <v>254.241408717465</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="J33" t="n">
-        <v>254.241408717465</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="K33" t="n">
-        <v>254.241408717465</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="L33" t="n">
-        <v>254.241408717465</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="M33" t="n">
-        <v>254.241408717465</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="N33" t="n">
-        <v>254.241408717465</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="O33" t="n">
-        <v>254.241408717465</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="P33" t="n">
-        <v>254.241408717465</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.8517130164787</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="R33" t="n">
-        <v>352.8073044318559</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="S33" t="n">
-        <v>352.8073044318559</v>
+        <v>352.8073044318555</v>
       </c>
       <c r="T33" t="n">
-        <v>323.8473746020403</v>
+        <v>323.84737460204</v>
       </c>
       <c r="U33" t="n">
-        <v>267.7820591896501</v>
+        <v>267.7820591896498</v>
       </c>
       <c r="V33" t="n">
-        <v>204.7705265642134</v>
+        <v>204.7705265642132</v>
       </c>
       <c r="W33" t="n">
-        <v>122.6737454423177</v>
+        <v>122.6737454423176</v>
       </c>
       <c r="X33" t="n">
-        <v>86.96282084309092</v>
+        <v>86.9628208430908</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.343097684443</v>
+        <v>51.34309768444294</v>
       </c>
     </row>
     <row r="34">
@@ -6835,73 +6835,73 @@
         <v>49.03064400962197</v>
       </c>
       <c r="C34" t="n">
-        <v>52.17126927372091</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="D34" t="n">
-        <v>73.75692913743117</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="E34" t="n">
-        <v>97.50228426906818</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="F34" t="n">
-        <v>122.2504248781067</v>
+        <v>49.03064400962197</v>
       </c>
       <c r="G34" t="n">
-        <v>124.8757393143281</v>
+        <v>51.65595844584334</v>
       </c>
       <c r="H34" t="n">
-        <v>134.9543159625141</v>
+        <v>51.65595844584334</v>
       </c>
       <c r="I34" t="n">
-        <v>156.4316016605081</v>
+        <v>51.65595844584334</v>
       </c>
       <c r="J34" t="n">
-        <v>248.3743850461404</v>
+        <v>143.5987418314757</v>
       </c>
       <c r="K34" t="n">
-        <v>252.0509222726689</v>
+        <v>147.2752790580042</v>
       </c>
       <c r="L34" t="n">
-        <v>312.2820587381229</v>
+        <v>147.2752790580042</v>
       </c>
       <c r="M34" t="n">
-        <v>386.1764702069643</v>
+        <v>221.1696905268455</v>
       </c>
       <c r="N34" t="n">
-        <v>463.7484541550602</v>
+        <v>298.7416744749414</v>
       </c>
       <c r="O34" t="n">
-        <v>519.382441206063</v>
+        <v>523.0906396776849</v>
       </c>
       <c r="P34" t="n">
-        <v>543.4662459675694</v>
+        <v>547.1744444391912</v>
       </c>
       <c r="Q34" t="n">
-        <v>587.2625153529146</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="R34" t="n">
-        <v>587.2625153529146</v>
+        <v>587.2625153529143</v>
       </c>
       <c r="S34" t="n">
-        <v>537.0605423045123</v>
+        <v>537.060542304512</v>
       </c>
       <c r="T34" t="n">
-        <v>479.9182623622842</v>
+        <v>479.9182623622839</v>
       </c>
       <c r="U34" t="n">
-        <v>362.8600190927266</v>
+        <v>362.8600190927264</v>
       </c>
       <c r="V34" t="n">
-        <v>280.3161064931458</v>
+        <v>280.3161064931455</v>
       </c>
       <c r="W34" t="n">
-        <v>163.0395120624912</v>
+        <v>163.039512062491</v>
       </c>
       <c r="X34" t="n">
-        <v>107.1905367707798</v>
+        <v>107.1905367707797</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.53853323355568</v>
+        <v>58.53853323355562</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>272.8248781436356</v>
       </c>
       <c r="K35" t="n">
-        <v>438.6259201588351</v>
+        <v>634.3081898414414</v>
       </c>
       <c r="L35" t="n">
-        <v>892.2756711345459</v>
+        <v>797.0648042128636</v>
       </c>
       <c r="M35" t="n">
-        <v>1069.330244335503</v>
+        <v>1100.709877636712</v>
       </c>
       <c r="N35" t="n">
-        <v>1558.938884635293</v>
+        <v>1529.04746361484</v>
       </c>
       <c r="O35" t="n">
-        <v>1558.938884635293</v>
+        <v>1957.088432470013</v>
       </c>
       <c r="P35" t="n">
-        <v>1719.577275663045</v>
+        <v>1994.828372090603</v>
       </c>
       <c r="Q35" t="n">
-        <v>1958.670527295442</v>
+        <v>2023.729782969695</v>
       </c>
       <c r="R35" t="n">
         <v>2036.987614483365</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="C36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="D36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="E36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="F36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="G36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="H36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="I36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="J36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="K36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="L36" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="M36" t="n">
-        <v>177.1149383400137</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="N36" t="n">
-        <v>177.1149383400137</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="O36" t="n">
-        <v>177.1149383400137</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="P36" t="n">
-        <v>177.1149383400137</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.1149383400137</v>
+        <v>71.55417015890492</v>
       </c>
       <c r="R36" t="n">
         <v>177.1149383400137</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.38836159215566</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C37" t="n">
-        <v>78.6544288979858</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D37" t="n">
-        <v>78.6544288979858</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="E37" t="n">
-        <v>78.6544288979858</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="F37" t="n">
-        <v>78.6544288979858</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2470348650729</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2929030441248</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I37" t="n">
-        <v>193.7374802729845</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="J37" t="n">
-        <v>193.7374802729845</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="K37" t="n">
-        <v>193.7374802729845</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="L37" t="n">
-        <v>193.7374802729845</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="M37" t="n">
-        <v>193.7374802729845</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="N37" t="n">
-        <v>193.7374802729845</v>
+        <v>312.6278381468532</v>
       </c>
       <c r="O37" t="n">
-        <v>193.7374802729845</v>
+        <v>312.6278381468532</v>
       </c>
       <c r="P37" t="n">
-        <v>217.8212850344908</v>
+        <v>312.6278381468532</v>
       </c>
       <c r="Q37" t="n">
-        <v>346.7428526107271</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="R37" t="n">
         <v>376.8598769291155</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1123.55002080183</v>
+        <v>1123.550020801829</v>
       </c>
       <c r="C38" t="n">
-        <v>954.2429162505683</v>
+        <v>954.242916250568</v>
       </c>
       <c r="D38" t="n">
-        <v>795.6326300329683</v>
+        <v>795.632630032968</v>
       </c>
       <c r="E38" t="n">
-        <v>609.4997898238746</v>
+        <v>609.4997898238744</v>
       </c>
       <c r="F38" t="n">
-        <v>398.1692974234176</v>
+        <v>398.1692974234174</v>
       </c>
       <c r="G38" t="n">
-        <v>178.8306033145581</v>
+        <v>178.8306033145582</v>
       </c>
       <c r="H38" t="n">
         <v>40.73975228966729</v>
@@ -7172,31 +7172,31 @@
         <v>40.73975228966729</v>
       </c>
       <c r="J38" t="n">
-        <v>240.7660141484503</v>
+        <v>99.0791019219472</v>
       </c>
       <c r="K38" t="n">
-        <v>602.2493258462562</v>
+        <v>460.562413619753</v>
       </c>
       <c r="L38" t="n">
-        <v>1055.899076821967</v>
+        <v>460.562413619753</v>
       </c>
       <c r="M38" t="n">
-        <v>1110.208021770517</v>
+        <v>541.7617909408572</v>
       </c>
       <c r="N38" t="n">
-        <v>1599.816662070307</v>
+        <v>935.2156460975134</v>
       </c>
       <c r="O38" t="n">
-        <v>1970.346263983682</v>
+        <v>1363.256614952687</v>
       </c>
       <c r="P38" t="n">
-        <v>2008.086203604273</v>
+        <v>1719.577275663045</v>
       </c>
       <c r="Q38" t="n">
-        <v>2036.987614483364</v>
+        <v>1958.670527295442</v>
       </c>
       <c r="R38" t="n">
-        <v>2036.987614483364</v>
+        <v>2036.987614483365</v>
       </c>
       <c r="S38" t="n">
         <v>2036.987614483365</v>
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.55417015890498</v>
       </c>
       <c r="C39" t="n">
-        <v>40.73975228966729</v>
+        <v>96.25502584307876</v>
       </c>
       <c r="D39" t="n">
-        <v>40.73975228966729</v>
+        <v>96.25502584307876</v>
       </c>
       <c r="E39" t="n">
-        <v>40.73975228966729</v>
+        <v>96.25502584307876</v>
       </c>
       <c r="F39" t="n">
-        <v>40.73975228966729</v>
+        <v>148.3187752562351</v>
       </c>
       <c r="G39" t="n">
-        <v>40.73975228966729</v>
+        <v>148.3187752562351</v>
       </c>
       <c r="H39" t="n">
-        <v>40.73975228966729</v>
+        <v>148.3187752562351</v>
       </c>
       <c r="I39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="J39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="K39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="L39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="M39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="N39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="O39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="P39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.1920553937701</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="R39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="S39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400133</v>
       </c>
       <c r="T39" t="n">
-        <v>175.6698452930421</v>
+        <v>175.6698452930422</v>
       </c>
       <c r="U39" t="n">
-        <v>147.1193666634964</v>
+        <v>147.1193666634965</v>
       </c>
       <c r="V39" t="n">
-        <v>111.6226708209042</v>
+        <v>111.6226708209043</v>
       </c>
       <c r="W39" t="n">
-        <v>57.04072648185304</v>
+        <v>57.04072648185311</v>
       </c>
       <c r="X39" t="n">
-        <v>48.84463866547072</v>
+        <v>48.84463866547075</v>
       </c>
       <c r="Y39" t="n">
         <v>40.73975228966729</v>
@@ -7315,64 +7315,64 @@
         <v>40.73975228966729</v>
       </c>
       <c r="E40" t="n">
-        <v>91.4523989521702</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="F40" t="n">
-        <v>143.1678310920747</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="G40" t="n">
-        <v>155.6624274765272</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="H40" t="n">
-        <v>155.6624274765272</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I40" t="n">
-        <v>155.6624274765272</v>
+        <v>89.18432951852712</v>
       </c>
       <c r="J40" t="n">
-        <v>155.6624274765272</v>
+        <v>208.0944044350252</v>
       </c>
       <c r="K40" t="n">
-        <v>159.3389647030558</v>
+        <v>208.0944044350252</v>
       </c>
       <c r="L40" t="n">
-        <v>219.5701011685098</v>
+        <v>208.0944044350252</v>
       </c>
       <c r="M40" t="n">
-        <v>219.5701011685098</v>
+        <v>208.0944044350252</v>
       </c>
       <c r="N40" t="n">
-        <v>297.1420851166057</v>
+        <v>208.0944044350252</v>
       </c>
       <c r="O40" t="n">
-        <v>352.7760721676086</v>
+        <v>223.8545045913724</v>
       </c>
       <c r="P40" t="n">
-        <v>376.8598769291149</v>
+        <v>247.9383093528787</v>
       </c>
       <c r="Q40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="R40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291151</v>
       </c>
       <c r="S40" t="n">
-        <v>354.172740663557</v>
+        <v>354.1727406635572</v>
       </c>
       <c r="T40" t="n">
-        <v>324.5452975041734</v>
+        <v>324.5452975041736</v>
       </c>
       <c r="U40" t="n">
-        <v>235.0018910174603</v>
+        <v>235.0018910174604</v>
       </c>
       <c r="V40" t="n">
-        <v>179.9728152007239</v>
+        <v>179.972815200724</v>
       </c>
       <c r="W40" t="n">
-        <v>90.21105755291376</v>
+        <v>90.21105755291383</v>
       </c>
       <c r="X40" t="n">
-        <v>61.87691904404691</v>
+        <v>61.87691904404694</v>
       </c>
       <c r="Y40" t="n">
         <v>40.73975228966729</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1123.55002080183</v>
+        <v>1123.550020801828</v>
       </c>
       <c r="C41" t="n">
-        <v>954.2429162505684</v>
+        <v>954.2429162505672</v>
       </c>
       <c r="D41" t="n">
-        <v>795.6326300329683</v>
+        <v>795.6326300329672</v>
       </c>
       <c r="E41" t="n">
-        <v>609.4997898238746</v>
+        <v>609.4997898238737</v>
       </c>
       <c r="F41" t="n">
-        <v>398.1692974234175</v>
+        <v>398.1692974234168</v>
       </c>
       <c r="G41" t="n">
         <v>178.8306033145582</v>
       </c>
       <c r="H41" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I41" t="n">
-        <v>47.07987949100278</v>
+        <v>47.07987949100271</v>
       </c>
       <c r="J41" t="n">
-        <v>272.8248781436357</v>
+        <v>105.4192291232826</v>
       </c>
       <c r="K41" t="n">
-        <v>634.3081898414416</v>
+        <v>145.9985823756353</v>
       </c>
       <c r="L41" t="n">
-        <v>634.3081898414416</v>
+        <v>599.6483333513461</v>
       </c>
       <c r="M41" t="n">
-        <v>634.3081898414416</v>
+        <v>758.3269147636759</v>
       </c>
       <c r="N41" t="n">
-        <v>1065.430591436844</v>
+        <v>1130.89791578012</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.471560292018</v>
+        <v>1558.938884635293</v>
       </c>
       <c r="P41" t="n">
-        <v>1719.577275663045</v>
+        <v>1915.259545345651</v>
       </c>
       <c r="Q41" t="n">
-        <v>1958.670527295443</v>
+        <v>1958.670527295442</v>
       </c>
       <c r="R41" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483364</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483364</v>
       </c>
       <c r="T41" t="n">
         <v>2013.498228615229</v>
       </c>
       <c r="U41" t="n">
-        <v>1959.309431770776</v>
+        <v>1959.309431770775</v>
       </c>
       <c r="V41" t="n">
-        <v>1827.901956816356</v>
+        <v>1827.901956816355</v>
       </c>
       <c r="W41" t="n">
-        <v>1674.788713935392</v>
+        <v>1674.788713935391</v>
       </c>
       <c r="X41" t="n">
-        <v>1500.978368063462</v>
+        <v>1500.978368063461</v>
       </c>
       <c r="Y41" t="n">
-        <v>1310.494448476801</v>
+        <v>1310.4944484768</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="E42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="F42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="G42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="H42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="J42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="K42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="L42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="M42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="N42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="O42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="P42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.1149383400133</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="R42" t="n">
-        <v>177.1149383400133</v>
+        <v>146.4936152463371</v>
       </c>
       <c r="S42" t="n">
-        <v>177.1149383400133</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="T42" t="n">
-        <v>175.6698452930422</v>
+        <v>175.6698452930425</v>
       </c>
       <c r="U42" t="n">
-        <v>147.1193666634965</v>
+        <v>147.1193666634968</v>
       </c>
       <c r="V42" t="n">
-        <v>111.6226708209043</v>
+        <v>111.6226708209045</v>
       </c>
       <c r="W42" t="n">
-        <v>57.04072648185311</v>
+        <v>57.04072648185322</v>
       </c>
       <c r="X42" t="n">
-        <v>48.84463866547075</v>
+        <v>48.8446386654708</v>
       </c>
       <c r="Y42" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C43" t="n">
-        <v>40.7397522896673</v>
+        <v>70.84766908463203</v>
       </c>
       <c r="D43" t="n">
-        <v>40.7397522896673</v>
+        <v>119.4006204792081</v>
       </c>
       <c r="E43" t="n">
-        <v>91.45239895217017</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="F43" t="n">
-        <v>143.1678310920746</v>
+        <v>172.4593566047058</v>
       </c>
       <c r="G43" t="n">
-        <v>172.7604370591618</v>
+        <v>172.4593566047058</v>
       </c>
       <c r="H43" t="n">
-        <v>209.8063052382137</v>
+        <v>209.5052247837576</v>
       </c>
       <c r="I43" t="n">
-        <v>258.2508824670735</v>
+        <v>257.9498020126174</v>
       </c>
       <c r="J43" t="n">
-        <v>258.2508824670735</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="K43" t="n">
-        <v>258.2508824670735</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="L43" t="n">
-        <v>302.9654654602738</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="M43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="N43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="O43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="P43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="Q43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="R43" t="n">
-        <v>376.8598769291151</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="S43" t="n">
-        <v>354.1727406635572</v>
+        <v>354.1727406635575</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5452975041736</v>
+        <v>324.5452975041738</v>
       </c>
       <c r="U43" t="n">
-        <v>235.0018910174604</v>
+        <v>235.0018910174607</v>
       </c>
       <c r="V43" t="n">
-        <v>179.972815200724</v>
+        <v>179.9728152007242</v>
       </c>
       <c r="W43" t="n">
-        <v>90.21105755291383</v>
+        <v>90.21105755291394</v>
       </c>
       <c r="X43" t="n">
-        <v>61.87691904404694</v>
+        <v>61.876919044047</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1123.55002080183</v>
+        <v>1123.550020801829</v>
       </c>
       <c r="C44" t="n">
-        <v>954.2429162505684</v>
+        <v>954.2429162505676</v>
       </c>
       <c r="D44" t="n">
-        <v>795.6326300329683</v>
+        <v>795.6326300329677</v>
       </c>
       <c r="E44" t="n">
-        <v>609.4997898238744</v>
+        <v>609.4997898238739</v>
       </c>
       <c r="F44" t="n">
-        <v>398.1692974234172</v>
+        <v>398.1692974234168</v>
       </c>
       <c r="G44" t="n">
-        <v>178.8306033145583</v>
+        <v>178.8306033145582</v>
       </c>
       <c r="H44" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I44" t="n">
-        <v>40.7397522896673</v>
+        <v>47.07987949100267</v>
       </c>
       <c r="J44" t="n">
-        <v>266.4847509423001</v>
+        <v>256.9679517722897</v>
       </c>
       <c r="K44" t="n">
-        <v>627.9680626401059</v>
+        <v>297.5473050246422</v>
       </c>
       <c r="L44" t="n">
-        <v>1081.617813615817</v>
+        <v>751.1970560003529</v>
       </c>
       <c r="M44" t="n">
-        <v>1325.360150713335</v>
+        <v>1170.061837323404</v>
       </c>
       <c r="N44" t="n">
-        <v>1325.360150713335</v>
+        <v>1463.988207940587</v>
       </c>
       <c r="O44" t="n">
-        <v>1753.401119568508</v>
+        <v>1892.02917679576</v>
       </c>
       <c r="P44" t="n">
-        <v>2023.729782969695</v>
+        <v>1929.769116416351</v>
       </c>
       <c r="Q44" t="n">
-        <v>2023.729782969695</v>
+        <v>1958.670527295442</v>
       </c>
       <c r="R44" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483364</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483364</v>
       </c>
       <c r="T44" t="n">
         <v>2013.498228615229</v>
       </c>
       <c r="U44" t="n">
-        <v>1959.309431770776</v>
+        <v>1959.309431770775</v>
       </c>
       <c r="V44" t="n">
-        <v>1827.901956816356</v>
+        <v>1827.901956816355</v>
       </c>
       <c r="W44" t="n">
-        <v>1674.788713935392</v>
+        <v>1674.788713935391</v>
       </c>
       <c r="X44" t="n">
-        <v>1500.978368063463</v>
+        <v>1500.978368063461</v>
       </c>
       <c r="Y44" t="n">
-        <v>1310.494448476801</v>
+        <v>1310.4944484768</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="C45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="D45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="E45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="F45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="G45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="H45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="I45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="J45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="K45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="L45" t="n">
-        <v>177.1149383400139</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="M45" t="n">
-        <v>177.1149383400139</v>
+        <v>40.73975228966729</v>
       </c>
       <c r="N45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="O45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="P45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="R45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="S45" t="n">
-        <v>177.1149383400139</v>
+        <v>177.1149383400137</v>
       </c>
       <c r="T45" t="n">
-        <v>175.6698452930427</v>
+        <v>175.6698452930425</v>
       </c>
       <c r="U45" t="n">
-        <v>147.1193666634969</v>
+        <v>147.1193666634968</v>
       </c>
       <c r="V45" t="n">
         <v>111.6226708209045</v>
       </c>
       <c r="W45" t="n">
-        <v>57.04072648185328</v>
+        <v>57.04072648185322</v>
       </c>
       <c r="X45" t="n">
-        <v>48.84463866547084</v>
+        <v>48.8446386654708</v>
       </c>
       <c r="Y45" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.7397522896673</v>
+        <v>58.38836159215566</v>
       </c>
       <c r="C46" t="n">
-        <v>40.7397522896673</v>
+        <v>88.4962783871204</v>
       </c>
       <c r="D46" t="n">
-        <v>40.7397522896673</v>
+        <v>137.0492297816965</v>
       </c>
       <c r="E46" t="n">
-        <v>40.7397522896673</v>
+        <v>187.7618764441993</v>
       </c>
       <c r="F46" t="n">
-        <v>40.7397522896673</v>
+        <v>239.4773085841036</v>
       </c>
       <c r="G46" t="n">
-        <v>40.7397522896673</v>
+        <v>269.0699145511908</v>
       </c>
       <c r="H46" t="n">
-        <v>40.7397522896673</v>
+        <v>306.1157827302426</v>
       </c>
       <c r="I46" t="n">
-        <v>40.7397522896673</v>
+        <v>354.5603599591024</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7397522896673</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="K46" t="n">
-        <v>40.7397522896673</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="L46" t="n">
-        <v>100.9708887551214</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="M46" t="n">
-        <v>174.8653002239627</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="N46" t="n">
-        <v>252.4372841720586</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="O46" t="n">
-        <v>252.4372841720586</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="P46" t="n">
-        <v>252.4372841720586</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="Q46" t="n">
-        <v>376.8598769291157</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="R46" t="n">
-        <v>376.8598769291157</v>
+        <v>376.8598769291155</v>
       </c>
       <c r="S46" t="n">
-        <v>354.1727406635577</v>
+        <v>354.1727406635575</v>
       </c>
       <c r="T46" t="n">
-        <v>324.545297504174</v>
+        <v>324.5452975041738</v>
       </c>
       <c r="U46" t="n">
-        <v>235.0018910174608</v>
+        <v>235.0018910174607</v>
       </c>
       <c r="V46" t="n">
-        <v>179.9728152007243</v>
+        <v>179.9728152007242</v>
       </c>
       <c r="W46" t="n">
-        <v>90.211057552914</v>
+        <v>90.21105755291394</v>
       </c>
       <c r="X46" t="n">
-        <v>61.87691904404703</v>
+        <v>61.876919044047</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.7397522896673</v>
+        <v>40.73975228966729</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>138.730222273057</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>156.6696125558117</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>56.01431489276607</v>
       </c>
       <c r="M11" t="n">
-        <v>142.8013381152083</v>
+        <v>41.7276518849021</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>140.4516005562433</v>
       </c>
       <c r="O11" t="n">
-        <v>45.02073829247252</v>
+        <v>37.80430458105467</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8772093482635</v>
+        <v>159.5377071333493</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.01175009403731</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.41191114289029</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>61.89673235350698</v>
       </c>
       <c r="K14" t="n">
-        <v>181.2155351653774</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>157.0880011230722</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.72765188490202</v>
       </c>
       <c r="N14" t="n">
-        <v>140.4516005562433</v>
+        <v>21.7354519207362</v>
       </c>
       <c r="O14" t="n">
-        <v>45.02073829247243</v>
+        <v>45.02073829247263</v>
       </c>
       <c r="P14" t="n">
         <v>159.5377071333493</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.168869658421</v>
+        <v>67.39182771263781</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>156.6696125558117</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>264.1773153720766</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>49.16430735285135</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>74.54323996603426</v>
       </c>
       <c r="N27" t="n">
-        <v>368.8071024716285</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O27" t="n">
-        <v>79.12735402155596</v>
+        <v>385.9724655591651</v>
       </c>
       <c r="P27" t="n">
         <v>83.0350273337411</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>41.24931539924651</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>155.7029884479791</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>47.91383856405707</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>61.96199093401879</v>
       </c>
       <c r="O30" t="n">
-        <v>385.9724655591661</v>
+        <v>79.12735402155596</v>
       </c>
       <c r="P30" t="n">
         <v>83.0350273337411</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>138.730222273057</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>429.1551722789885</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>120.4387068378615</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>101.6346962078498</v>
@@ -10437,7 +10437,7 @@
         <v>74.54323996603426</v>
       </c>
       <c r="N33" t="n">
-        <v>61.96199093401879</v>
+        <v>368.8071024716284</v>
       </c>
       <c r="O33" t="n">
         <v>79.12735402155596</v>
@@ -10446,7 +10446,7 @@
         <v>83.0350273337411</v>
       </c>
       <c r="Q33" t="n">
-        <v>118.667828620146</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,7 +10510,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.597497104998659</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>123.8297634350075</v>
       </c>
       <c r="M35" t="n">
-        <v>123.9854830832395</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>146.0944245227789</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.6346962078498</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>80.63362065245525</v>
       </c>
       <c r="M36" t="n">
-        <v>25.38702038033964</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>79.12735402155596</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.0851902505792</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10753,16 +10753,16 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N37" t="n">
-        <v>93.46217750295074</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
         <v>106.8457198497179</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>143.1180931580838</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>157.0880011230722</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.16205290156968</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,10 +10838,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>101.6346962078498</v>
@@ -10908,10 +10908,10 @@
         <v>80.63362065245525</v>
       </c>
       <c r="M39" t="n">
-        <v>74.54323996603426</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>61.96199093401879</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>79.12735402155596</v>
@@ -10923,7 +10923,7 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,19 +10981,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M40" t="n">
         <v>103.8688412439494</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>93.46217750295074</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>122.7650129369373</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>142.8013381152083</v>
+        <v>105.4238752159391</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>190.2684603539768</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,19 +11136,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.72855112475852</v>
+        <v>101.6346962078498</v>
       </c>
       <c r="K42" t="n">
         <v>94.76561655653892</v>
       </c>
       <c r="L42" t="n">
-        <v>80.63362065245525</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>74.54323996603426</v>
       </c>
       <c r="N42" t="n">
-        <v>61.96199093401879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>79.12735402155596</v>
@@ -11160,7 +11160,7 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.28023547841862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L43" t="n">
-        <v>146.8014152059446</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N43" t="n">
         <v>93.46217750295074</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>153.0795178272801</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>191.3468607565332</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>140.4516005562432</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.6346962078498</v>
       </c>
       <c r="K45" t="n">
-        <v>94.7656165565389</v>
+        <v>94.76561655653902</v>
       </c>
       <c r="L45" t="n">
-        <v>218.3863338346235</v>
+        <v>80.63362065245538</v>
       </c>
       <c r="M45" t="n">
-        <v>74.54323996603424</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>61.96199093401877</v>
+        <v>199.7147041161871</v>
       </c>
       <c r="O45" t="n">
-        <v>79.12735402155593</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>83.03502733374108</v>
+        <v>83.03502733374121</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>105.9301475100313</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11455,25 +11455,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>103.0300923784622</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>101.6351697582676</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>93.46217750295079</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.845719849718</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.0240089337407</v>
+        <v>74.38786243430741</v>
       </c>
       <c r="C11" t="n">
-        <v>56.92691254183424</v>
+        <v>160.5630590412679</v>
       </c>
       <c r="D11" t="n">
-        <v>149.9732088909431</v>
+        <v>149.9732088909433</v>
       </c>
       <c r="E11" t="n">
-        <v>177.2205373425219</v>
+        <v>177.2205373425221</v>
       </c>
       <c r="F11" t="n">
-        <v>127.0870127202439</v>
+        <v>202.1662130119718</v>
       </c>
       <c r="G11" t="n">
-        <v>106.4581862038559</v>
+        <v>181.6110668230904</v>
       </c>
       <c r="H11" t="n">
-        <v>26.02282155072756</v>
+        <v>26.0228215507277</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.59593441152819</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>123.0424257403951</v>
+        <v>123.0424257403952</v>
       </c>
       <c r="W11" t="n">
-        <v>144.5311359876732</v>
+        <v>144.5311359876733</v>
       </c>
       <c r="X11" t="n">
-        <v>165.0212679487292</v>
+        <v>165.0212679487294</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.5281059263137</v>
+        <v>77.89195942688042</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.0240089337406</v>
+        <v>178.0240089337408</v>
       </c>
       <c r="C14" t="n">
-        <v>160.5630590412676</v>
+        <v>160.5630590412678</v>
       </c>
       <c r="D14" t="n">
-        <v>46.33706239150956</v>
+        <v>149.9732088909432</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2205373425219</v>
+        <v>73.58439084308853</v>
       </c>
       <c r="F14" t="n">
-        <v>202.1662130119715</v>
+        <v>110.8834951752707</v>
       </c>
       <c r="G14" t="n">
-        <v>210.0943327032893</v>
+        <v>106.458186203856</v>
       </c>
       <c r="H14" t="n">
-        <v>129.658968050161</v>
+        <v>26.02282155072762</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.20351754497318</v>
+        <v>16.20351754497335</v>
       </c>
       <c r="U14" t="n">
-        <v>46.5959344115281</v>
+        <v>46.59593441152828</v>
       </c>
       <c r="V14" t="n">
-        <v>31.75970790369404</v>
+        <v>123.0424257403951</v>
       </c>
       <c r="W14" t="n">
-        <v>40.89498948823962</v>
+        <v>144.5311359876733</v>
       </c>
       <c r="X14" t="n">
-        <v>165.0212679487291</v>
+        <v>165.0212679487293</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.89195942688019</v>
+        <v>181.5281059263138</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.438849039914203e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927596.4922863663</v>
+        <v>927596.4922863662</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927596.4922863664</v>
+        <v>927596.4922863662</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1158759.227177646</v>
+        <v>1158759.227177647</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1158759.227177647</v>
+        <v>1158759.227177646</v>
       </c>
     </row>
     <row r="16">
@@ -26323,37 +26323,37 @@
         <v>333944.1034700492</v>
       </c>
       <c r="F2" t="n">
-        <v>333944.1034700493</v>
+        <v>333944.1034700491</v>
       </c>
       <c r="G2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="H2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="J2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="K2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="L2" t="n">
         <v>389994.8406855346</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855352</v>
+        <v>389994.8406855351</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.840685535</v>
       </c>
       <c r="O2" t="n">
         <v>389994.840685535</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.840685535</v>
+        <v>389994.8406855349</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>294349.2232702161</v>
+        <v>294349.223270216</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>103727.1744401288</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>165849.5582910369</v>
+        <v>165849.5582910368</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103727.1744401288</v>
       </c>
       <c r="M3" t="n">
-        <v>21791.75073201277</v>
+        <v>21791.75073201273</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32608.16144006556</v>
+        <v>32608.16144006547</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>358816.465748749</v>
+        <v>358816.4657487488</v>
       </c>
       <c r="F4" t="n">
-        <v>358816.465748749</v>
+        <v>358816.4657487488</v>
       </c>
       <c r="G4" t="n">
         <v>425794.1076040038</v>
       </c>
       <c r="H4" t="n">
+        <v>425794.1076040038</v>
+      </c>
+      <c r="I4" t="n">
         <v>425794.1076040037</v>
-      </c>
-      <c r="I4" t="n">
-        <v>425794.1076040038</v>
       </c>
       <c r="J4" t="n">
         <v>429343.9844908856</v>
@@ -26445,7 +26445,7 @@
         <v>429343.9844908855</v>
       </c>
       <c r="L4" t="n">
-        <v>429343.9844908856</v>
+        <v>429343.9844908855</v>
       </c>
       <c r="M4" t="n">
         <v>428441.800531239</v>
@@ -26454,10 +26454,10 @@
         <v>428441.8005312391</v>
       </c>
       <c r="O4" t="n">
+        <v>428441.800531239</v>
+      </c>
+      <c r="P4" t="n">
         <v>428441.8005312391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>428441.800531239</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26214.46039316142</v>
+        <v>26214.4603931614</v>
       </c>
       <c r="F5" t="n">
-        <v>26214.46039316143</v>
+        <v>26214.46039316141</v>
       </c>
       <c r="G5" t="n">
-        <v>37114.76017817041</v>
+        <v>37114.7601781704</v>
       </c>
       <c r="H5" t="n">
         <v>37114.7601781704</v>
       </c>
       <c r="I5" t="n">
-        <v>37114.76017817041</v>
+        <v>37114.7601781704</v>
       </c>
       <c r="J5" t="n">
         <v>54293.89039569214</v>
       </c>
       <c r="K5" t="n">
+        <v>54293.89039569214</v>
+      </c>
+      <c r="L5" t="n">
         <v>54293.89039569213</v>
-      </c>
-      <c r="L5" t="n">
-        <v>54293.89039569214</v>
       </c>
       <c r="M5" t="n">
         <v>50282.82605388856</v>
@@ -26506,7 +26506,7 @@
         <v>50282.82605388857</v>
       </c>
       <c r="O5" t="n">
-        <v>50282.82605388857</v>
+        <v>50282.82605388855</v>
       </c>
       <c r="P5" t="n">
         <v>50282.82605388855</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112087.299041138</v>
+        <v>-112091.7126190061</v>
       </c>
       <c r="C6" t="n">
-        <v>-112087.299041138</v>
+        <v>-112091.7126190062</v>
       </c>
       <c r="D6" t="n">
-        <v>-112087.2990411381</v>
+        <v>-112091.7126190061</v>
       </c>
       <c r="E6" t="n">
-        <v>-345436.0459420774</v>
+        <v>-345731.0498221586</v>
       </c>
       <c r="F6" t="n">
-        <v>-51086.82267186113</v>
+        <v>-51381.82655194261</v>
       </c>
       <c r="G6" t="n">
-        <v>-176641.2015367681</v>
+        <v>-176641.2015367683</v>
       </c>
       <c r="H6" t="n">
-        <v>-72914.02709663927</v>
+        <v>-72914.02709663945</v>
       </c>
       <c r="I6" t="n">
         <v>-72914.02709663933</v>
       </c>
       <c r="J6" t="n">
-        <v>-259492.5924920799</v>
+        <v>-259492.59249208</v>
       </c>
       <c r="K6" t="n">
-        <v>-93643.03420104284</v>
+        <v>-93643.03420104313</v>
       </c>
       <c r="L6" t="n">
         <v>-197370.2086411719</v>
@@ -26555,13 +26555,13 @@
         <v>-110521.5366316052</v>
       </c>
       <c r="N6" t="n">
-        <v>-88729.78589959312</v>
+        <v>-88729.78589959265</v>
       </c>
       <c r="O6" t="n">
-        <v>-121337.9473396581</v>
+        <v>-121337.947339658</v>
       </c>
       <c r="P6" t="n">
-        <v>-88729.78589959246</v>
+        <v>-88729.78589959269</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>204.7098327297397</v>
+      </c>
+      <c r="F2" t="n">
         <v>204.7098327297398</v>
       </c>
-      <c r="F2" t="n">
-        <v>204.7098327297399</v>
-      </c>
       <c r="G2" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="H2" t="n">
         <v>334.3688007799008</v>
@@ -26710,16 +26710,16 @@
         <v>170.419169850243</v>
       </c>
       <c r="K2" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L2" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="M2" t="n">
         <v>197.6588582652589</v>
       </c>
       <c r="N2" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="O2" t="n">
         <v>197.6588582652589</v>
@@ -26777,7 +26777,7 @@
         <v>124.019805423824</v>
       </c>
       <c r="P3" t="n">
-        <v>124.019805423824</v>
+        <v>124.0198054238237</v>
       </c>
     </row>
     <row r="4">
@@ -26808,16 +26808,16 @@
         <v>103.6361464994335</v>
       </c>
       <c r="I4" t="n">
-        <v>103.6361464994336</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="J4" t="n">
-        <v>612.8830501202747</v>
+        <v>612.8830501202746</v>
       </c>
       <c r="K4" t="n">
-        <v>612.8830501202747</v>
+        <v>612.8830501202746</v>
       </c>
       <c r="L4" t="n">
-        <v>612.8830501202747</v>
+        <v>612.8830501202746</v>
       </c>
       <c r="M4" t="n">
         <v>509.2469036208412</v>
@@ -26826,10 +26826,10 @@
         <v>509.2469036208412</v>
       </c>
       <c r="O4" t="n">
-        <v>509.2469036208412</v>
+        <v>509.2469036208411</v>
       </c>
       <c r="P4" t="n">
-        <v>509.2469036208412</v>
+        <v>509.2469036208411</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.658968050161</v>
+        <v>129.6589680501611</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.76020180008197</v>
+        <v>40.76020180008189</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.658968050161</v>
       </c>
       <c r="M2" t="n">
-        <v>27.23968841501596</v>
+        <v>27.23968841501591</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008194</v>
+        <v>40.76020180008183</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.658968050161</v>
+        <v>129.6589680501611</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008197</v>
+        <v>40.76020180008189</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="C11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="D11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="E11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="F11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="G11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="H11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="I11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>138.730222273057</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="N11" t="n">
-        <v>204.7098327297398</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="P11" t="n">
-        <v>78.2966442845192</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.7098327297398</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="S11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="T11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="U11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="V11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="W11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="X11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>137.076757581733</v>
       </c>
       <c r="H12" t="n">
-        <v>204.7098327297398</v>
+        <v>109.6591082785412</v>
       </c>
       <c r="I12" t="n">
         <v>90.33789440965077</v>
@@ -28193,7 +28193,7 @@
         <v>101.6346962078498</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0372263068877</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L12" t="n">
         <v>80.63362065245525</v>
@@ -28214,7 +28214,7 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R12" t="n">
-        <v>129.1170099490616</v>
+        <v>184.0274330077196</v>
       </c>
       <c r="S12" t="n">
         <v>166.7282288777068</v>
@@ -28223,19 +28223,19 @@
         <v>199.0895003817603</v>
       </c>
       <c r="U12" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="V12" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="W12" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="X12" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
     </row>
     <row r="13">
@@ -28251,28 +28251,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3479227740411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>204.7098327297398</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>204.7098327297398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>204.7098327297398</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H13" t="n">
         <v>160.2387893975297</v>
       </c>
       <c r="I13" t="n">
-        <v>204.7098327297398</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J13" t="n">
         <v>111.1839128036407</v>
       </c>
       <c r="K13" t="n">
-        <v>103.0300923784621</v>
+        <v>190.6861457647331</v>
       </c>
       <c r="L13" t="n">
         <v>101.6351697582675</v>
@@ -28281,40 +28281,40 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N13" t="n">
-        <v>93.46217750295074</v>
+        <v>197.0983240023842</v>
       </c>
       <c r="O13" t="n">
-        <v>106.8457198497179</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="P13" t="n">
         <v>110.6794877973681</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.7098327297398</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R13" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="T13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="U13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="V13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="W13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="X13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.7098327297398</v>
+        <v>204.7098327297397</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="C14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="E14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="F14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="H14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="I14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="J14" t="n">
-        <v>204.7098327297399</v>
+        <v>76.83348991955003</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>156.6696125558117</v>
       </c>
       <c r="L14" t="n">
-        <v>204.7098327297399</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="O14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.29664428452308</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="R14" t="n">
-        <v>204.7098327297399</v>
+        <v>184.2671092615521</v>
       </c>
       <c r="S14" t="n">
-        <v>204.7098327297399</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="15">
@@ -28415,10 +28415,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>204.7098327297399</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>177.758471446924</v>
+        <v>137.076757581733</v>
       </c>
       <c r="H15" t="n">
         <v>109.6591082785412</v>
@@ -28430,22 +28430,22 @@
         <v>101.6346962078498</v>
       </c>
       <c r="K15" t="n">
-        <v>94.76561655653892</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>80.63362065245525</v>
+        <v>180.9559548540032</v>
       </c>
       <c r="M15" t="n">
         <v>74.54323996603426</v>
       </c>
       <c r="N15" t="n">
-        <v>61.96199093401879</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>79.12735402155596</v>
       </c>
       <c r="P15" t="n">
-        <v>83.0350273337411</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>105.9301475100312</v>
@@ -28460,19 +28460,19 @@
         <v>199.0895003817603</v>
       </c>
       <c r="U15" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V15" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W15" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X15" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="16">
@@ -28485,7 +28485,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>204.7098327297399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28494,19 +28494,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>204.7098327297399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>187.7840976054162</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H16" t="n">
-        <v>204.7098327297399</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I16" t="n">
-        <v>204.7098327297399</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J16" t="n">
-        <v>111.1839128036407</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="K16" t="n">
         <v>103.0300923784621</v>
@@ -28518,40 +28518,40 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N16" t="n">
-        <v>93.46217750295074</v>
+        <v>191.2284574625555</v>
       </c>
       <c r="O16" t="n">
-        <v>106.8457198497179</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="P16" t="n">
         <v>110.6794877973681</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.7098327297399</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R16" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.7098327297399</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="C17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="D17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="E17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="F17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="G17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="H17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="I17" t="n">
-        <v>294.8908358744545</v>
+        <v>191.2546893750211</v>
       </c>
       <c r="J17" t="n">
-        <v>138.730222273057</v>
+        <v>242.3663687724905</v>
       </c>
       <c r="K17" t="n">
         <v>156.6696125558117</v>
@@ -28606,31 +28606,31 @@
         <v>159.5377071333493</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.4655139429441</v>
+        <v>261.2977990821295</v>
       </c>
       <c r="R17" t="n">
-        <v>287.9032557609855</v>
+        <v>184.2671092615521</v>
       </c>
       <c r="S17" t="n">
-        <v>207.4281097658114</v>
+        <v>301.2950047646923</v>
       </c>
       <c r="T17" t="n">
-        <v>324.5494967741465</v>
+        <v>324.5494967741466</v>
       </c>
       <c r="U17" t="n">
-        <v>334.3688007799009</v>
+        <v>251.305767141268</v>
       </c>
       <c r="V17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="W17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="X17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.3688007799009</v>
+        <v>334.3688007799008</v>
       </c>
     </row>
     <row r="18">
@@ -28825,7 +28825,7 @@
         <v>138.730222273057</v>
       </c>
       <c r="K20" t="n">
-        <v>156.6696125558117</v>
+        <v>260.3057590552452</v>
       </c>
       <c r="L20" t="n">
         <v>157.0880011230722</v>
@@ -28837,25 +28837,25 @@
         <v>140.4516005562433</v>
       </c>
       <c r="O20" t="n">
-        <v>146.0944245227789</v>
+        <v>249.7305710222124</v>
       </c>
       <c r="P20" t="n">
         <v>159.5377071333493</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.2347654434967</v>
+        <v>261.2977990821296</v>
       </c>
       <c r="R20" t="n">
-        <v>287.9032557609856</v>
+        <v>184.2671092615521</v>
       </c>
       <c r="S20" t="n">
-        <v>301.2950047646923</v>
+        <v>301.2950047646924</v>
       </c>
       <c r="T20" t="n">
-        <v>324.5494967741466</v>
+        <v>220.9133502747131</v>
       </c>
       <c r="U20" t="n">
-        <v>334.3688007799008</v>
+        <v>251.305767141268</v>
       </c>
       <c r="V20" t="n">
         <v>334.3688007799008</v>
@@ -29056,13 +29056,13 @@
         <v>334.3688007799008</v>
       </c>
       <c r="I23" t="n">
-        <v>284.0869745142066</v>
+        <v>294.8908358744546</v>
       </c>
       <c r="J23" t="n">
-        <v>138.730222273057</v>
+        <v>242.3663687724905</v>
       </c>
       <c r="K23" t="n">
-        <v>260.3057590552453</v>
+        <v>156.6696125558117</v>
       </c>
       <c r="L23" t="n">
         <v>157.0880011230722</v>
@@ -29083,16 +29083,16 @@
         <v>168.4655139429441</v>
       </c>
       <c r="R23" t="n">
-        <v>287.9032557609857</v>
+        <v>194.0363607621048</v>
       </c>
       <c r="S23" t="n">
-        <v>301.2950047646924</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T23" t="n">
-        <v>220.9133502747131</v>
+        <v>324.5494967741466</v>
       </c>
       <c r="U23" t="n">
-        <v>251.305767141268</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="V23" t="n">
         <v>334.3688007799008</v>
@@ -29299,7 +29299,7 @@
         <v>170.419169850243</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>70.51168496152854</v>
       </c>
       <c r="L26" t="n">
         <v>170.419169850243</v>
@@ -29314,13 +29314,13 @@
         <v>170.419169850243</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>170.419169850243</v>
       </c>
-      <c r="Q26" t="n">
-        <v>74.64378214254243</v>
-      </c>
       <c r="R26" t="n">
-        <v>170.419169850243</v>
+        <v>135.1028019087007</v>
       </c>
       <c r="S26" t="n">
         <v>170.419169850243</v>
@@ -29436,7 +29436,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>170.419169850243</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -29457,25 +29457,25 @@
         <v>77.54767148091739</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>170.419169850243</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.8081560735179</v>
+        <v>170.419169850243</v>
       </c>
       <c r="R28" t="n">
         <v>167.2376215800181</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="E29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="G29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="L29" t="n">
-        <v>126.5122626042232</v>
+        <v>115.6837163566585</v>
       </c>
       <c r="M29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="N29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P29" t="n">
-        <v>170.4191698502429</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>170.4191698502429</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.5506893885697</v>
+        <v>136.353270697495</v>
       </c>
       <c r="S29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="30">
@@ -29591,25 +29591,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>168.0069083942595</v>
       </c>
       <c r="G30" t="n">
-        <v>137.076757581733</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6591082785412</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I30" t="n">
-        <v>80.21214726106585</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.59534013774075</v>
+        <v>170.419169850243</v>
       </c>
       <c r="S30" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y30" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29667,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D31" t="n">
-        <v>170.4191698502429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>154.641917880926</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>170.419169850243</v>
       </c>
       <c r="G31" t="n">
         <v>167.767337086383</v>
       </c>
       <c r="H31" t="n">
-        <v>160.2387893975297</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I31" t="n">
-        <v>170.4191698502429</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J31" t="n">
-        <v>106.0541981923521</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>170.4191698502429</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.43505263269697</v>
+        <v>170.419169850243</v>
       </c>
       <c r="R31" t="n">
-        <v>167.2376215800181</v>
+        <v>170.419169850243</v>
       </c>
       <c r="S31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="E32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="G32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="I32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>50.90659066140304</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="M32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="N32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="O32" t="n">
-        <v>70.69051329088738</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="R32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="S32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="33">
@@ -29828,10 +29828,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="D33" t="n">
-        <v>170.4191698502429</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -29840,13 +29840,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>170.4191698502429</v>
+        <v>137.076757581733</v>
       </c>
       <c r="H33" t="n">
-        <v>170.4191698502429</v>
+        <v>109.6591082785412</v>
       </c>
       <c r="I33" t="n">
-        <v>170.4191698502429</v>
+        <v>90.33789440965077</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>170.4191698502429</v>
+        <v>83.59534013774075</v>
       </c>
       <c r="S33" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="34">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="C34" t="n">
-        <v>170.4191698502429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>170.4191698502429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>170.4191698502429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>170.4191698502429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="H34" t="n">
-        <v>170.4191698502429</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I34" t="n">
-        <v>170.4191698502429</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>170.419169850243</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.4191698502429</v>
+        <v>107.9280535556496</v>
       </c>
       <c r="R34" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="T34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="U34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="V34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="W34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="X34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.4191698502429</v>
+        <v>170.419169850243</v>
       </c>
     </row>
     <row r="35">
@@ -30010,22 +30010,22 @@
         <v>197.6588582652589</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L35" t="n">
         <v>197.6588582652589</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>135.7689044049946</v>
+      </c>
+      <c r="O35" t="n">
         <v>197.6588582652589</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>197.6588582652589</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>197.6588582652589</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -30086,31 +30086,31 @@
         <v>90.33789440965077</v>
       </c>
       <c r="J36" t="n">
-        <v>101.6346962078498</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>94.76561655653892</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>80.63362065245525</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>186.9089327678627</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>61.96199093401879</v>
       </c>
       <c r="O36" t="n">
-        <v>79.12735402155596</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.0350273337411</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.9301475100312</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>129.1170099490616</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S36" t="n">
         <v>166.7282288777068</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.6588582652589</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>187.7175961550219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30156,13 +30156,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>197.6588582652589</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H37" t="n">
-        <v>197.6588582652589</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I37" t="n">
-        <v>197.6588582652589</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J37" t="n">
         <v>111.1839128036407</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>196.2788908172625</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="R37" t="n">
-        <v>197.6588582652589</v>
+        <v>167.2376215800181</v>
       </c>
       <c r="S37" t="n">
         <v>197.6588582652589</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I38" t="n">
         <v>191.2546893750211</v>
       </c>
       <c r="J38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L38" t="n">
-        <v>197.658858265259</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="N38" t="n">
-        <v>197.658858265259</v>
+        <v>100.5328126661341</v>
       </c>
       <c r="O38" t="n">
-        <v>139.5665684250592</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="P38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R38" t="n">
-        <v>118.5506893885697</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30311,7 +30311,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G39" t="n">
         <v>137.076757581733</v>
@@ -30320,7 +30320,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I39" t="n">
-        <v>103.9013423157152</v>
+        <v>119.4249278276086</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30332,10 +30332,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>197.658858265259</v>
+        <v>129.1170099490616</v>
       </c>
       <c r="S39" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="40">
@@ -30387,22 +30387,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>197.658858265259</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>197.658858265259</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>180.388141515123</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H40" t="n">
         <v>160.2387893975297</v>
       </c>
       <c r="I40" t="n">
-        <v>148.7249418724712</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J40" t="n">
-        <v>77.54767148091739</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.43505263269697</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R40" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="41">
@@ -30487,13 +30487,13 @@
         <v>197.6588582652589</v>
       </c>
       <c r="L41" t="n">
-        <v>157.0880011230722</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="N41" t="n">
-        <v>138.5818494729488</v>
+        <v>79.43902060531332</v>
       </c>
       <c r="O41" t="n">
         <v>197.6588582652589</v>
@@ -30502,7 +30502,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="Q41" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>197.6588582652589</v>
@@ -30560,34 +30560,34 @@
         <v>90.33789440965077</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>80.63362065245525</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>61.96199093401879</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>197.6588582652589</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>129.1170099490616</v>
-      </c>
       <c r="S42" t="n">
-        <v>166.7282288777068</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T42" t="n">
         <v>197.6588582652589</v>
@@ -30618,19 +30618,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E43" t="n">
         <v>197.6588582652589</v>
       </c>
       <c r="F43" t="n">
-        <v>197.6588582652589</v>
+        <v>147.7908353592896</v>
       </c>
       <c r="G43" t="n">
-        <v>197.6588582652589</v>
+        <v>167.767337086383</v>
       </c>
       <c r="H43" t="n">
         <v>197.6588582652589</v>
@@ -30639,10 +30639,10 @@
         <v>197.6588582652589</v>
       </c>
       <c r="J43" t="n">
-        <v>111.1839128036407</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="I44" t="n">
-        <v>191.2546893750211</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J44" t="n">
         <v>197.6588582652589</v>
@@ -30727,7 +30727,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="M44" t="n">
-        <v>197.6588582652589</v>
+        <v>116.3835433325289</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>197.6588582652589</v>
       </c>
       <c r="P44" t="n">
-        <v>110.798254922662</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Q44" t="n">
-        <v>168.4655139429441</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R44" t="n">
         <v>197.6588582652589</v>
@@ -30794,10 +30794,10 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I45" t="n">
-        <v>90.33789440965077</v>
+        <v>90.33789440965079</v>
       </c>
       <c r="J45" t="n">
-        <v>101.6346962078498</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30806,19 +30806,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>74.54323996603441</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>79.12735402155609</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.9301475100312</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>129.1170099490616</v>
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G46" t="n">
-        <v>167.767337086383</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H46" t="n">
-        <v>160.2387893975297</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7249418724712</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J46" t="n">
-        <v>111.1839128036407</v>
+        <v>133.7086774198156</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.8457198497179</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.679487797368</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.1144392559869</v>
+        <v>132.7780110104485</v>
       </c>
       <c r="R46" t="n">
         <v>167.2376215800181</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4985720821058248</v>
+        <v>0.4985720821058236</v>
       </c>
       <c r="H44" t="n">
-        <v>5.10600133586628</v>
+        <v>5.106001335866267</v>
       </c>
       <c r="I44" t="n">
-        <v>19.22120019538483</v>
+        <v>19.22120019538478</v>
       </c>
       <c r="J44" t="n">
-        <v>42.31568225362929</v>
+        <v>42.31568225362918</v>
       </c>
       <c r="K44" t="n">
-        <v>63.42023848916887</v>
+        <v>63.42023848916871</v>
       </c>
       <c r="L44" t="n">
-        <v>78.67841384691502</v>
+        <v>78.67841384691482</v>
       </c>
       <c r="M44" t="n">
-        <v>87.54489511206448</v>
+        <v>87.54489511206425</v>
       </c>
       <c r="N44" t="n">
-        <v>88.96146304034767</v>
+        <v>88.96146304034744</v>
       </c>
       <c r="O44" t="n">
-        <v>84.00378689890786</v>
+        <v>84.00378689890765</v>
       </c>
       <c r="P44" t="n">
-        <v>71.6952886219203</v>
+        <v>71.69528862192011</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.84017593150543</v>
+        <v>53.84017593150529</v>
       </c>
       <c r="R44" t="n">
-        <v>31.31842855258005</v>
+        <v>31.31842855257997</v>
       </c>
       <c r="S44" t="n">
-        <v>11.3612113209865</v>
+        <v>11.36121132098647</v>
       </c>
       <c r="T44" t="n">
-        <v>2.182499289418249</v>
+        <v>2.182499289418244</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03988576656846598</v>
+        <v>0.03988576656846588</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2667595814776592</v>
+        <v>0.2667595814776585</v>
       </c>
       <c r="H45" t="n">
-        <v>2.576335957955288</v>
+        <v>2.576335957955282</v>
       </c>
       <c r="I45" t="n">
-        <v>9.184485590349233</v>
+        <v>9.18448559034921</v>
       </c>
       <c r="J45" t="n">
-        <v>25.20293045881692</v>
+        <v>25.20293045881686</v>
       </c>
       <c r="K45" t="n">
-        <v>43.07582241782009</v>
+        <v>43.07582241781998</v>
       </c>
       <c r="L45" t="n">
-        <v>57.92075912741895</v>
+        <v>57.9207591274188</v>
       </c>
       <c r="M45" t="n">
-        <v>67.59079395598408</v>
+        <v>67.59079395598391</v>
       </c>
       <c r="N45" t="n">
-        <v>69.37972114931453</v>
+        <v>69.37972114931436</v>
       </c>
       <c r="O45" t="n">
-        <v>63.46889042288851</v>
+        <v>63.46889042288835</v>
       </c>
       <c r="P45" t="n">
-        <v>50.93938008058916</v>
+        <v>50.93938008058903</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.05162657599033</v>
+        <v>34.05162657599024</v>
       </c>
       <c r="R45" t="n">
-        <v>16.56249401490239</v>
+        <v>16.56249401490235</v>
       </c>
       <c r="S45" t="n">
-        <v>4.954942226131079</v>
+        <v>4.954942226131067</v>
       </c>
       <c r="T45" t="n">
-        <v>1.075228313061266</v>
+        <v>1.075228313061264</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01754997246563548</v>
+        <v>0.01754997246563544</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2236422720757482</v>
+        <v>0.2236422720757477</v>
       </c>
       <c r="H46" t="n">
-        <v>1.988383109909836</v>
+        <v>1.988383109909831</v>
       </c>
       <c r="I46" t="n">
-        <v>6.725533054787048</v>
+        <v>6.725533054787031</v>
       </c>
       <c r="J46" t="n">
-        <v>15.8115086357554</v>
+        <v>15.81150863575536</v>
       </c>
       <c r="K46" t="n">
-        <v>25.98316579207329</v>
+        <v>25.98316579207322</v>
       </c>
       <c r="L46" t="n">
-        <v>33.24950652297079</v>
+        <v>33.24950652297071</v>
       </c>
       <c r="M46" t="n">
-        <v>35.05694270365569</v>
+        <v>35.0569427036556</v>
       </c>
       <c r="N46" t="n">
-        <v>34.22336696228248</v>
+        <v>34.22336696228239</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61081860212486</v>
+        <v>31.61081860212478</v>
       </c>
       <c r="P46" t="n">
-        <v>27.04851625177957</v>
+        <v>27.04851625177951</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.72699061899743</v>
+        <v>18.72699061899738</v>
       </c>
       <c r="R46" t="n">
-        <v>10.05576979715137</v>
+        <v>10.05576979715134</v>
       </c>
       <c r="S46" t="n">
-        <v>3.897474868810992</v>
+        <v>3.897474868810983</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9555624352327421</v>
+        <v>0.9555624352327398</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01219866938594992</v>
+        <v>0.01219866938594989</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.45514335471876</v>
+        <v>13.45514335471859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -35413,28 +35413,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.6218316066676</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="N11" t="n">
-        <v>64.25823217349657</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>103.6361464994335</v>
+        <v>96.41971278801545</v>
       </c>
       <c r="P11" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.25606888083308</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.44272346818776</v>
+        <v>86.15914334117002</v>
       </c>
       <c r="S11" t="n">
-        <v>7.050974464480994</v>
+        <v>7.050974464480824</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.05072445119868</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>5.271609750348812</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.3223342015483</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35547,28 +35547,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.732449755828746</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.27587008317067</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.2887847068086</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.94249564335684</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>55.98489085726861</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>87.65605338627094</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>97.86411288002174</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.93182171929142</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>13.45514335471884</v>
+        <v>13.45514335471867</v>
       </c>
       <c r="J14" t="n">
-        <v>65.97961045668292</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.54592260956575</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.62183160666768</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>61.90849461453165</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>85.99368409423268</v>
       </c>
       <c r="O14" t="n">
         <v>103.6361464994335</v>
@@ -35665,13 +35665,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="R14" t="n">
-        <v>86.15914334117028</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.050974464481079</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35711,10 +35711,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>59.64062033635605</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>40.68171386519101</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>100.3223342015479</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.4630116311121</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35790,19 +35790,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.28878470680868</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.0167605190332</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.47104333221019</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>55.9848908572687</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.52591992609904</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>97.76627995960472</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>97.86411288002182</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.93182171929151</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,11 +35878,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>103.6361464994335</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>92.83228513918546</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>103.6361464994335</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9.769251500552519</v>
       </c>
       <c r="T17" t="n">
         <v>103.6361464994335</v>
       </c>
       <c r="U17" t="n">
-        <v>83.06303363863285</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.616542309765975</v>
+        <v>6.616542309765919</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,25 +36133,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.769251500552642</v>
+        <v>92.83228513918549</v>
       </c>
       <c r="R20" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>103.6361464994335</v>
       </c>
       <c r="T20" t="n">
-        <v>103.6361464994335</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>83.06303363863279</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>6.616542309765919</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>92.83228513918553</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="K23" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>103.6361464994336</v>
+        <v>9.76925150055272</v>
       </c>
       <c r="S23" t="n">
-        <v>103.6361464994336</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>83.06303363863279</v>
       </c>
       <c r="V23" t="n">
         <v>6.616542309765919</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>200.7855627492597</v>
+        <v>31.68894757718603</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>237.9874849768816</v>
       </c>
       <c r="L26" t="n">
-        <v>430.9923832776211</v>
+        <v>430.9923832776212</v>
       </c>
       <c r="M26" t="n">
-        <v>477.1313652278672</v>
+        <v>477.1313652278673</v>
       </c>
       <c r="N26" t="n">
-        <v>467.3144937059839</v>
+        <v>467.314493705984</v>
       </c>
       <c r="O26" t="n">
-        <v>405.1249265902094</v>
+        <v>405.1249265902095</v>
       </c>
       <c r="P26" t="n">
-        <v>275.0587780889703</v>
+        <v>162.2610010381334</v>
       </c>
       <c r="Q26" t="n">
-        <v>118.493258859503</v>
+        <v>214.2686465672036</v>
       </c>
       <c r="R26" t="n">
-        <v>51.86848046167331</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>306.8451115376097</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>306.8451115376091</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.8036968320306</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.713673966190427</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>231.2587016335299</v>
+        <v>60.83953178328692</v>
       </c>
       <c r="M28" t="n">
         <v>74.64081966549627</v>
@@ -36765,13 +36765,13 @@
         <v>78.35553934151105</v>
       </c>
       <c r="O28" t="n">
-        <v>56.19594651616453</v>
+        <v>226.6151163664076</v>
       </c>
       <c r="P28" t="n">
         <v>24.32707551667305</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.37310344082095</v>
+        <v>78.89047423904113</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>200.7855627492597</v>
+        <v>200.7855627492598</v>
       </c>
       <c r="K29" t="n">
-        <v>337.894969865596</v>
+        <v>337.8949698655961</v>
       </c>
       <c r="L29" t="n">
-        <v>387.0854760316014</v>
+        <v>376.2569297840367</v>
       </c>
       <c r="M29" t="n">
-        <v>477.1313652278671</v>
+        <v>477.1313652278673</v>
       </c>
       <c r="N29" t="n">
-        <v>467.3144937059838</v>
+        <v>467.314493705984</v>
       </c>
       <c r="O29" t="n">
-        <v>9.608563925200194</v>
+        <v>405.1249265902095</v>
       </c>
       <c r="P29" t="n">
-        <v>332.6801708883763</v>
+        <v>162.2610010381334</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.2686465672035</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36893,19 +36893,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>12.77408939484209</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>22.93769600087559</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>33.34241226851006</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>60.76006157170186</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>90.20702258917719</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>306.8451115376101</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.82382971250229</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36966,28 +36966,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.172348751615061</v>
+        <v>3.172348751615203</v>
       </c>
       <c r="D31" t="n">
-        <v>21.80369683203054</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8.20795523435682</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>24.99812182731179</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.1803804527133</v>
       </c>
       <c r="I31" t="n">
-        <v>21.69422797777166</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.50652671143476</v>
+        <v>92.87149836932565</v>
       </c>
       <c r="K31" t="n">
         <v>3.713673966190427</v>
@@ -36996,7 +36996,7 @@
         <v>60.83953178328692</v>
       </c>
       <c r="M31" t="n">
-        <v>245.0599895157392</v>
+        <v>74.64081966549627</v>
       </c>
       <c r="N31" t="n">
         <v>78.35553934151105</v>
@@ -37008,10 +37008,10 @@
         <v>24.32707551667305</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>102.9841172175461</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.181548270224916</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>81.2729835604198</v>
       </c>
       <c r="K32" t="n">
         <v>167.475800015353</v>
@@ -37075,22 +37075,22 @@
         <v>430.9923832776211</v>
       </c>
       <c r="M32" t="n">
-        <v>456.7730040140231</v>
+        <v>477.1313652278672</v>
       </c>
       <c r="N32" t="n">
         <v>467.3144937059839</v>
       </c>
       <c r="O32" t="n">
-        <v>305.3962700308538</v>
+        <v>405.1249265902094</v>
       </c>
       <c r="P32" t="n">
-        <v>332.6801708883763</v>
+        <v>131.3201695547552</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.2686465672035</v>
+        <v>214.2686465672036</v>
       </c>
       <c r="R32" t="n">
-        <v>51.86848046167328</v>
+        <v>51.86848046167334</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22.97410428560417</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37136,13 +37136,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>33.34241226850995</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>60.76006157170175</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>90.20702258917707</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>306.8451115376096</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.73768111011485</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.82382971250217</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37203,34 +37203,34 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.17234875161509</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.80369683203057</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.98520720367375</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.99812182731168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.651832763859912</v>
+        <v>2.651832763859969</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18038045271318</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21.69422797777169</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.87149836932554</v>
+        <v>92.87149836932559</v>
       </c>
       <c r="K34" t="n">
         <v>3.713673966190427</v>
       </c>
       <c r="L34" t="n">
-        <v>60.83953178328692</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>74.64081966549627</v>
@@ -37239,13 +37239,13 @@
         <v>78.35553934151105</v>
       </c>
       <c r="O34" t="n">
-        <v>56.19594651616453</v>
+        <v>226.6151163664075</v>
       </c>
       <c r="P34" t="n">
         <v>24.32707551667305</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.23865594479316</v>
+        <v>40.4930009229526</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>228.0252511642756</v>
       </c>
       <c r="K35" t="n">
-        <v>167.475800015353</v>
+        <v>365.134658280612</v>
       </c>
       <c r="L35" t="n">
-        <v>458.2320716926371</v>
+        <v>164.4006205771941</v>
       </c>
       <c r="M35" t="n">
-        <v>178.8430032332901</v>
+        <v>306.7121953776242</v>
       </c>
       <c r="N35" t="n">
-        <v>494.5541821209998</v>
+        <v>432.6642282607355</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>432.3646150052253</v>
       </c>
       <c r="P35" t="n">
-        <v>162.2610010381334</v>
+        <v>38.12115113190961</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.5083349822195</v>
+        <v>29.19334432231481</v>
       </c>
       <c r="R35" t="n">
-        <v>79.10816887668923</v>
+        <v>13.3917490037068</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37358,7 +37358,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>31.12567461539155</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>137.7527131821681</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.6270385667765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37437,10 +37437,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.82687808332159</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>20.47077505639407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.89152117887587</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>37.42006886772914</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.93391639278765</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>274.6344301587736</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.32707551667305</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.2238056325619</v>
+        <v>64.88084725481046</v>
       </c>
       <c r="R37" t="n">
-        <v>30.42123668524076</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>202.0467291502858</v>
+        <v>58.92863599220193</v>
       </c>
       <c r="K38" t="n">
         <v>365.134658280612</v>
       </c>
       <c r="L38" t="n">
-        <v>458.2320716926372</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>54.85752015005069</v>
+        <v>82.01957305162033</v>
       </c>
       <c r="N38" t="n">
-        <v>494.5541821209998</v>
+        <v>397.428136521875</v>
       </c>
       <c r="O38" t="n">
-        <v>374.2723251650256</v>
+        <v>432.3646150052254</v>
       </c>
       <c r="P38" t="n">
-        <v>38.1211511319097</v>
+        <v>359.9198593033923</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.1933443223149</v>
+        <v>241.5083349822195</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>79.10816887668929</v>
       </c>
       <c r="S38" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37595,10 +37595,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>31.1256746153916</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>24.9503592769432</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>52.58964587187506</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.6891950546493</v>
+        <v>29.08703341795783</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>114.0635181275182</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37683,43 +37683,43 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>51.2248956186898</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.23781024232773</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.62080442873996</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>48.93391639278771</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>120.1111867843416</v>
       </c>
       <c r="K40" t="n">
-        <v>3.713673966190427</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>60.83953178328692</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>78.35553934151105</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.19594651616453</v>
+        <v>15.91929308721939</v>
       </c>
       <c r="P40" t="n">
         <v>24.32707551667305</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.223805632562</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.404168890237855</v>
+        <v>6.404168890237798</v>
       </c>
       <c r="J41" t="n">
-        <v>228.0252511642757</v>
+        <v>58.92863599220188</v>
       </c>
       <c r="K41" t="n">
-        <v>365.134658280612</v>
+        <v>40.98924570944718</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>458.2320716926371</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>160.2813953659897</v>
       </c>
       <c r="N41" t="n">
-        <v>435.4771733286897</v>
+        <v>376.3343444610542</v>
       </c>
       <c r="O41" t="n">
-        <v>432.3646150052254</v>
+        <v>432.3646150052253</v>
       </c>
       <c r="P41" t="n">
-        <v>228.3896114858865</v>
+        <v>359.9198593033922</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5083349822195</v>
+        <v>43.84947671696061</v>
       </c>
       <c r="R41" t="n">
-        <v>79.10816887668929</v>
+        <v>79.10816887668923</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.7527131821677</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37880,10 +37880,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.8220837946159</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.93062938755214</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37914,37 +37914,37 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.41203716663105</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.04338524704653</v>
       </c>
       <c r="E43" t="n">
-        <v>51.22489561868977</v>
+        <v>51.22489561868971</v>
       </c>
       <c r="F43" t="n">
-        <v>52.2378102423277</v>
+        <v>2.36978733635841</v>
       </c>
       <c r="G43" t="n">
-        <v>29.89152117887593</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>37.4200688677292</v>
+        <v>37.42006886772914</v>
       </c>
       <c r="I43" t="n">
-        <v>48.93391639278771</v>
+        <v>48.93391639278765</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>120.1111867843415</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>45.16624544767705</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>74.64081966549627</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.404168890237756</v>
       </c>
       <c r="J44" t="n">
-        <v>228.0252511642756</v>
+        <v>212.0081538194818</v>
       </c>
       <c r="K44" t="n">
-        <v>365.1346582806119</v>
+        <v>40.98924570944705</v>
       </c>
       <c r="L44" t="n">
-        <v>458.2320716926371</v>
+        <v>458.232071692637</v>
       </c>
       <c r="M44" t="n">
-        <v>246.2043809065838</v>
+        <v>423.0957387101529</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>296.8953238557407</v>
       </c>
       <c r="O44" t="n">
-        <v>432.3646150052253</v>
+        <v>432.3646150052252</v>
       </c>
       <c r="P44" t="n">
-        <v>273.0592559607953</v>
+        <v>38.12115113190946</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>29.19334432231469</v>
       </c>
       <c r="R44" t="n">
-        <v>13.39174900370678</v>
+        <v>79.10816887668918</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>137.7527131821682</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>137.7527131821681</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38148,43 +38148,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>17.82687808332159</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>30.41203716663105</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.04338524704653</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51.22489561868971</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>52.23781024232764</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>29.89152117887587</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>37.42006886772914</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>48.93391639278763</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>22.52476461617483</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>60.83953178328693</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>74.64081966549628</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.35553934151108</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.6793866232899</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
